--- a/sf.xlsx
+++ b/sf.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZBook15\Documents\Bitcoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48471482-B4E9-4902-A640-03F7C2808B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE971B33-6DD4-4003-9BAF-CD2360048120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sf" sheetId="1" r:id="rId1"/>
     <sheet name="Regression (1)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -22,17 +22,27 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Regression (1)"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
   </definedNames>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -684,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1142,11 +1152,11 @@
       </c>
       <c r="I12" s="11">
         <f>EXP('Regression (1)'!$B$17)*D12^('Regression (1)'!$B$18)</f>
-        <v>1665.0671614814109</v>
+        <v>1665.0671614813893</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" ref="J12:J43" si="5">I12/C12</f>
-        <v>1.2698803855105331E-3</v>
+        <v>1.2698803855105167E-3</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="13.8">
@@ -1181,11 +1191,11 @@
       </c>
       <c r="I13" s="11">
         <f>EXP('Regression (1)'!$B$17)*D13^('Regression (1)'!$B$18)</f>
-        <v>7007.7620937067977</v>
+        <v>7007.7620937067059</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="5"/>
-        <v>4.9279294635960749E-3</v>
+        <v>4.9279294635960098E-3</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="13.8">
@@ -1220,11 +1230,11 @@
       </c>
       <c r="I14" s="11">
         <f>EXP('Regression (1)'!$B$17)*D14^('Regression (1)'!$B$18)</f>
-        <v>2618.8851143527654</v>
+        <v>2618.8851143527327</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="5"/>
-        <v>1.612167265445391E-3</v>
+        <v>1.6121672654453708E-3</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="13.8">
@@ -1259,11 +1269,11 @@
       </c>
       <c r="I15" s="11">
         <f>EXP('Regression (1)'!$B$17)*D15^('Regression (1)'!$B$18)</f>
-        <v>5183.4459957766867</v>
+        <v>5183.4459957766212</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="5"/>
-        <v>2.7650206682723103E-3</v>
+        <v>2.7650206682722756E-3</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="13.8">
@@ -1298,11 +1308,11 @@
       </c>
       <c r="I16" s="11">
         <f>EXP('Regression (1)'!$B$17)*D16^('Regression (1)'!$B$18)</f>
-        <v>11722.363161115447</v>
+        <v>11722.363161115301</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="5"/>
-        <v>5.4401165588989454E-3</v>
+        <v>5.4401165588988777E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.8">
@@ -1337,11 +1347,11 @@
       </c>
       <c r="I17" s="11">
         <f>EXP('Regression (1)'!$B$17)*D17^('Regression (1)'!$B$18)</f>
-        <v>41080.667998354547</v>
+        <v>41080.667998354045</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="5"/>
-        <v>1.7011685197156987E-2</v>
+        <v>1.7011685197156779E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="13.8">
@@ -1376,11 +1386,11 @@
       </c>
       <c r="I18" s="11">
         <f>EXP('Regression (1)'!$B$17)*D18^('Regression (1)'!$B$18)</f>
-        <v>66218.725608803419</v>
+        <v>66218.725608802648</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="5"/>
-        <v>2.4582357534590597E-2</v>
+        <v>2.4582357534590309E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.8">
@@ -1416,11 +1426,11 @@
       </c>
       <c r="I19" s="11">
         <f>EXP('Regression (1)'!$B$17)*D19^('Regression (1)'!$B$18)</f>
-        <v>192017.71775474961</v>
+        <v>192017.71775474746</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="5"/>
-        <v>6.5295491882937887E-2</v>
+        <v>6.5295491882937165E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.8">
@@ -1455,11 +1465,11 @@
       </c>
       <c r="I20" s="11">
         <f>EXP('Regression (1)'!$B$17)*D20^('Regression (1)'!$B$18)</f>
-        <v>357966.11752895243</v>
+        <v>357966.11752894847</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="5"/>
-        <v>0.11263703136481566</v>
+        <v>0.11263703136481441</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.8">
@@ -1494,11 +1504,11 @@
       </c>
       <c r="I21" s="11">
         <f>EXP('Regression (1)'!$B$17)*D21^('Regression (1)'!$B$18)</f>
-        <v>91186.912482467611</v>
+        <v>91186.912482466563</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="5"/>
-        <v>2.5529680408328464E-2</v>
+        <v>2.5529680408328172E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.8">
@@ -1533,11 +1543,11 @@
       </c>
       <c r="I22" s="11">
         <f>EXP('Regression (1)'!$B$17)*D22^('Regression (1)'!$B$18)</f>
-        <v>421812.03024392115</v>
+        <v>421812.0302439165</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="5"/>
-        <v>0.10892217896088446</v>
+        <v>0.10892217896088326</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.8">
@@ -1572,11 +1582,11 @@
       </c>
       <c r="I23" s="11">
         <f>EXP('Regression (1)'!$B$17)*D23^('Regression (1)'!$B$18)</f>
-        <v>829669.82636637799</v>
+        <v>829669.82636636891</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="5"/>
-        <v>0.19992766638947865</v>
+        <v>0.19992766638947645</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.8">
@@ -1611,11 +1621,11 @@
       </c>
       <c r="I24" s="11">
         <f>EXP('Regression (1)'!$B$17)*D24^('Regression (1)'!$B$18)</f>
-        <v>926594.30573216523</v>
+        <v>926594.30573215522</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="5"/>
-        <v>0.20847642211496314</v>
+        <v>0.2084764221149609</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.8">
@@ -1650,11 +1660,11 @@
       </c>
       <c r="I25" s="11">
         <f>EXP('Regression (1)'!$B$17)*D25^('Regression (1)'!$B$18)</f>
-        <v>1259765.033274272</v>
+        <v>1259765.0332742587</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="5"/>
-        <v>0.26577041028560289</v>
+        <v>0.26577041028560011</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.8">
@@ -1689,11 +1699,11 @@
       </c>
       <c r="I26" s="11">
         <f>EXP('Regression (1)'!$B$17)*D26^('Regression (1)'!$B$18)</f>
-        <v>2022538.0109138309</v>
+        <v>2022538.0109138098</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="5"/>
-        <v>0.40285990517061837</v>
+        <v>0.40285990517061415</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.8">
@@ -1728,11 +1738,11 @@
       </c>
       <c r="I27" s="11">
         <f>EXP('Regression (1)'!$B$17)*D27^('Regression (1)'!$B$18)</f>
-        <v>3491685.2561905547</v>
+        <v>3491685.2561905184</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" si="5"/>
-        <v>0.66149194964299607</v>
+        <v>0.66149194964298919</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.8">
@@ -1767,11 +1777,11 @@
       </c>
       <c r="I28" s="11">
         <f>EXP('Regression (1)'!$B$17)*D28^('Regression (1)'!$B$18)</f>
-        <v>3335437.701031324</v>
+        <v>3335437.70103129</v>
       </c>
       <c r="J28" s="11">
         <f t="shared" si="5"/>
-        <v>0.60024433145539235</v>
+        <v>0.60024433145538614</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.8">
@@ -1806,11 +1816,11 @@
       </c>
       <c r="I29" s="11">
         <f>EXP('Regression (1)'!$B$17)*D29^('Regression (1)'!$B$18)</f>
-        <v>6501311.6186211146</v>
+        <v>6501311.6186210476</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="5"/>
-        <v>1.1205487200091546</v>
+        <v>1.1205487200091431</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.8">
@@ -1845,11 +1855,11 @@
       </c>
       <c r="I30" s="11">
         <f>EXP('Regression (1)'!$B$17)*D30^('Regression (1)'!$B$18)</f>
-        <v>6861104.9157016026</v>
+        <v>6861104.9157015337</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="5"/>
-        <v>1.132887227465879</v>
+        <v>1.1328872274658675</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.8">
@@ -1884,11 +1894,11 @@
       </c>
       <c r="I31" s="11">
         <f>EXP('Regression (1)'!$B$17)*D31^('Regression (1)'!$B$18)</f>
-        <v>3071317.3188910824</v>
+        <v>3071317.3188910508</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="5"/>
-        <v>0.48040000295484808</v>
+        <v>0.48040000295484314</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.8">
@@ -1923,11 +1933,11 @@
       </c>
       <c r="I32" s="11">
         <f>EXP('Regression (1)'!$B$17)*D32^('Regression (1)'!$B$18)</f>
-        <v>5002552.3264624514</v>
+        <v>5002552.3264624001</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="5"/>
-        <v>0.74597599577433082</v>
+        <v>0.74597599577432316</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13.8">
@@ -1962,11 +1972,11 @@
       </c>
       <c r="I33" s="11">
         <f>EXP('Regression (1)'!$B$17)*D33^('Regression (1)'!$B$18)</f>
-        <v>14225423.573466627</v>
+        <v>14225423.573466487</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="5"/>
-        <v>2.0463082782704536</v>
+        <v>2.0463082782704336</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.8">
@@ -2001,11 +2011,11 @@
       </c>
       <c r="I34" s="11">
         <f>EXP('Regression (1)'!$B$17)*D34^('Regression (1)'!$B$18)</f>
-        <v>24837772.48913737</v>
+        <v>24837772.489137128</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="5"/>
-        <v>3.4639312296576716</v>
+        <v>3.4639312296576379</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.8">
@@ -2040,11 +2050,11 @@
       </c>
       <c r="I35" s="11">
         <f>EXP('Regression (1)'!$B$17)*D35^('Regression (1)'!$B$18)</f>
-        <v>33680197.47431609</v>
+        <v>33680197.47431577</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="5"/>
-        <v>4.5647948326928596</v>
+        <v>4.5647948326928161</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.8">
@@ -2079,11 +2089,11 @@
       </c>
       <c r="I36" s="11">
         <f>EXP('Regression (1)'!$B$17)*D36^('Regression (1)'!$B$18)</f>
-        <v>54363683.753825046</v>
+        <v>54363683.753824562</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="5"/>
-        <v>7.1855457860905201</v>
+        <v>7.1855457860904561</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.8">
@@ -2118,11 +2128,11 @@
       </c>
       <c r="I37" s="11">
         <f>EXP('Regression (1)'!$B$17)*D37^('Regression (1)'!$B$18)</f>
-        <v>42615456.544953756</v>
+        <v>42615456.544953346</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="5"/>
-        <v>5.4828153623912046</v>
+        <v>5.4828153623911513</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.8">
@@ -2157,11 +2167,11 @@
       </c>
       <c r="I38" s="11">
         <f>EXP('Regression (1)'!$B$17)*D38^('Regression (1)'!$B$18)</f>
-        <v>33139930.103219707</v>
+        <v>33139930.103219401</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="5"/>
-        <v>4.1415594120347556</v>
+        <v>4.1415594120347174</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.8">
@@ -2196,11 +2206,11 @@
       </c>
       <c r="I39" s="11">
         <f>EXP('Regression (1)'!$B$17)*D39^('Regression (1)'!$B$18)</f>
-        <v>33057512.461954217</v>
+        <v>33057512.461953901</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="5"/>
-        <v>4.0123209688013368</v>
+        <v>4.0123209688012986</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.8">
@@ -2235,11 +2245,11 @@
       </c>
       <c r="I40" s="11">
         <f>EXP('Regression (1)'!$B$17)*D40^('Regression (1)'!$B$18)</f>
-        <v>50169522.080250561</v>
+        <v>50169522.080250084</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" si="5"/>
-        <v>5.9324825825820273</v>
+        <v>5.9324825825819714</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.8">
@@ -2274,11 +2284,11 @@
       </c>
       <c r="I41" s="11">
         <f>EXP('Regression (1)'!$B$17)*D41^('Regression (1)'!$B$18)</f>
-        <v>43617651.655600578</v>
+        <v>43617651.655600183</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="5"/>
-        <v>5.0191769643507147</v>
+        <v>5.0191769643506685</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.8">
@@ -2313,11 +2323,11 @@
       </c>
       <c r="I42" s="11">
         <f>EXP('Regression (1)'!$B$17)*D42^('Regression (1)'!$B$18)</f>
-        <v>69875543.29967919</v>
+        <v>69875543.299678549</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" si="5"/>
-        <v>7.8505671800733863</v>
+        <v>7.8505671800733143</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
@@ -2352,11 +2362,11 @@
       </c>
       <c r="I43" s="11">
         <f>EXP('Regression (1)'!$B$17)*D43^('Regression (1)'!$B$18)</f>
-        <v>65085919.588909909</v>
+        <v>65085919.588909313</v>
       </c>
       <c r="J43" s="11">
         <f t="shared" si="5"/>
-        <v>7.1355186253107972</v>
+        <v>7.1355186253107323</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.8">
@@ -2391,11 +2401,11 @@
       </c>
       <c r="I44" s="11">
         <f>EXP('Regression (1)'!$B$17)*D44^('Regression (1)'!$B$18)</f>
-        <v>65216616.006849825</v>
+        <v>65216616.006849237</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" ref="J44:J75" si="10">I44/C44</f>
-        <v>6.9764195061963949</v>
+        <v>6.9764195061963319</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.8">
@@ -2430,11 +2440,11 @@
       </c>
       <c r="I45" s="11">
         <f>EXP('Regression (1)'!$B$17)*D45^('Regression (1)'!$B$18)</f>
-        <v>60047270.023688942</v>
+        <v>60047270.023688383</v>
       </c>
       <c r="J45" s="11">
         <f t="shared" si="10"/>
-        <v>6.2635363232453942</v>
+        <v>6.2635363232453356</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.8">
@@ -2469,11 +2479,11 @@
       </c>
       <c r="I46" s="11">
         <f>EXP('Regression (1)'!$B$17)*D46^('Regression (1)'!$B$18)</f>
-        <v>61385065.02553536</v>
+        <v>61385065.025534756</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" si="10"/>
-        <v>6.2441894082888245</v>
+        <v>6.2441894082887632</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.8">
@@ -2508,11 +2518,11 @@
       </c>
       <c r="I47" s="11">
         <f>EXP('Regression (1)'!$B$17)*D47^('Regression (1)'!$B$18)</f>
-        <v>77511092.275684655</v>
+        <v>77511092.275683954</v>
       </c>
       <c r="J47" s="11">
         <f t="shared" si="10"/>
-        <v>7.7006698401157072</v>
+        <v>7.7006698401156379</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.8">
@@ -2547,11 +2557,11 @@
       </c>
       <c r="I48" s="11">
         <f>EXP('Regression (1)'!$B$17)*D48^('Regression (1)'!$B$18)</f>
-        <v>90758950.89706555</v>
+        <v>90758950.89706476</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" si="10"/>
-        <v>8.8150575371813584</v>
+        <v>8.815057537181282</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.8">
@@ -2586,11 +2596,11 @@
       </c>
       <c r="I49" s="11">
         <f>EXP('Regression (1)'!$B$17)*D49^('Regression (1)'!$B$18)</f>
-        <v>113721258.94035545</v>
+        <v>113721258.94035442</v>
       </c>
       <c r="J49" s="11">
         <f t="shared" si="10"/>
-        <v>10.812626534032056</v>
+        <v>10.812626534031958</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.8">
@@ -2625,11 +2635,11 @@
       </c>
       <c r="I50" s="11">
         <f>EXP('Regression (1)'!$B$17)*D50^('Regression (1)'!$B$18)</f>
-        <v>1675889043.3481944</v>
+        <v>1675889043.348181</v>
       </c>
       <c r="J50" s="11">
         <f t="shared" si="10"/>
-        <v>157.76377108130356</v>
+        <v>157.76377108130231</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.8">
@@ -2664,11 +2674,11 @@
       </c>
       <c r="I51" s="11">
         <f>EXP('Regression (1)'!$B$17)*D51^('Regression (1)'!$B$18)</f>
-        <v>1444589572.2357526</v>
+        <v>1444589572.2357414</v>
       </c>
       <c r="J51" s="11">
         <f t="shared" si="10"/>
-        <v>134.58229877241467</v>
+        <v>134.58229877241362</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.8">
@@ -2703,11 +2713,11 @@
       </c>
       <c r="I52" s="11">
         <f>EXP('Regression (1)'!$B$17)*D52^('Regression (1)'!$B$18)</f>
-        <v>1275365468.3111463</v>
+        <v>1275365468.3111355</v>
       </c>
       <c r="J52" s="11">
         <f t="shared" si="10"/>
-        <v>117.5416836187991</v>
+        <v>117.5416836187981</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.8">
@@ -2742,11 +2752,11 @@
       </c>
       <c r="I53" s="11">
         <f>EXP('Regression (1)'!$B$17)*D53^('Regression (1)'!$B$18)</f>
-        <v>821921918.28949499</v>
+        <v>821921918.28948808</v>
       </c>
       <c r="J53" s="11">
         <f t="shared" si="10"/>
-        <v>74.829697856817248</v>
+        <v>74.829697856816622</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.8">
@@ -2781,11 +2791,11 @@
       </c>
       <c r="I54" s="11">
         <f>EXP('Regression (1)'!$B$17)*D54^('Regression (1)'!$B$18)</f>
-        <v>1113048429.5365644</v>
+        <v>1113048429.5365551</v>
       </c>
       <c r="J54" s="11">
         <f t="shared" si="10"/>
-        <v>100.20173878341336</v>
+        <v>100.20173878341252</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.8">
@@ -2820,11 +2830,11 @@
       </c>
       <c r="I55" s="11">
         <f>EXP('Regression (1)'!$B$17)*D55^('Regression (1)'!$B$18)</f>
-        <v>1154279814.9992659</v>
+        <v>1154279814.9992561</v>
       </c>
       <c r="J55" s="11">
         <f t="shared" si="10"/>
-        <v>102.76250300460859</v>
+        <v>102.76250300460771</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.8">
@@ -2859,11 +2869,11 @@
       </c>
       <c r="I56" s="11">
         <f>EXP('Regression (1)'!$B$17)*D56^('Regression (1)'!$B$18)</f>
-        <v>1027741007.3553073</v>
+        <v>1027741007.3552991</v>
       </c>
       <c r="J56" s="11">
         <f t="shared" si="10"/>
-        <v>90.448661616984282</v>
+        <v>90.448661616983557</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.8">
@@ -2898,11 +2908,11 @@
       </c>
       <c r="I57" s="11">
         <f>EXP('Regression (1)'!$B$17)*D57^('Regression (1)'!$B$18)</f>
-        <v>968149684.62484729</v>
+        <v>968149684.62483943</v>
       </c>
       <c r="J57" s="11">
         <f t="shared" si="10"/>
-        <v>84.210178429683609</v>
+        <v>84.210178429682927</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.8">
@@ -2937,11 +2947,11 @@
       </c>
       <c r="I58" s="11">
         <f>EXP('Regression (1)'!$B$17)*D58^('Regression (1)'!$B$18)</f>
-        <v>753610521.17305994</v>
+        <v>753610521.17305386</v>
       </c>
       <c r="J58" s="11">
         <f t="shared" si="10"/>
-        <v>64.727879682468483</v>
+        <v>64.727879682467957</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13.8">
@@ -2976,11 +2986,11 @@
       </c>
       <c r="I59" s="11">
         <f>EXP('Regression (1)'!$B$17)*D59^('Regression (1)'!$B$18)</f>
-        <v>899522293.75362849</v>
+        <v>899522293.7536217</v>
       </c>
       <c r="J59" s="11">
         <f t="shared" si="10"/>
-        <v>76.337931777359174</v>
+        <v>76.337931777358591</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.8">
@@ -3015,11 +3025,11 @@
       </c>
       <c r="I60" s="11">
         <f>EXP('Regression (1)'!$B$17)*D60^('Regression (1)'!$B$18)</f>
-        <v>670820412.98838043</v>
+        <v>670820412.98837507</v>
       </c>
       <c r="J60" s="11">
         <f t="shared" si="10"/>
-        <v>56.190143820644344</v>
+        <v>56.190143820643897</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.8">
@@ -3054,11 +3064,11 @@
       </c>
       <c r="I61" s="11">
         <f>EXP('Regression (1)'!$B$17)*D61^('Regression (1)'!$B$18)</f>
-        <v>1317693163.9097764</v>
+        <v>1317693163.9097652</v>
       </c>
       <c r="J61" s="11">
         <f t="shared" si="10"/>
-        <v>109.18834726414747</v>
+        <v>109.18834726414654</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13.8">
@@ -3093,11 +3103,11 @@
       </c>
       <c r="I62" s="11">
         <f>EXP('Regression (1)'!$B$17)*D62^('Regression (1)'!$B$18)</f>
-        <v>1036139332.0748693</v>
+        <v>1036139332.0748612</v>
       </c>
       <c r="J62" s="11">
         <f t="shared" si="10"/>
-        <v>84.869627318027398</v>
+        <v>84.86962731802673</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.8">
@@ -3132,11 +3142,11 @@
       </c>
       <c r="I63" s="11">
         <f>EXP('Regression (1)'!$B$17)*D63^('Regression (1)'!$B$18)</f>
-        <v>1190089148.1483185</v>
+        <v>1190089148.1483092</v>
       </c>
       <c r="J63" s="11">
         <f t="shared" si="10"/>
-        <v>96.399399626445359</v>
+        <v>96.399399626444605</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.8">
@@ -3171,11 +3181,11 @@
       </c>
       <c r="I64" s="11">
         <f>EXP('Regression (1)'!$B$17)*D64^('Regression (1)'!$B$18)</f>
-        <v>1826463431.1538744</v>
+        <v>1826463431.1538596</v>
       </c>
       <c r="J64" s="11">
         <f t="shared" si="10"/>
-        <v>146.4926817282612</v>
+        <v>146.49268172826004</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13.8">
@@ -3210,11 +3220,11 @@
       </c>
       <c r="I65" s="11">
         <f>EXP('Regression (1)'!$B$17)*D65^('Regression (1)'!$B$18)</f>
-        <v>1636132643.8236198</v>
+        <v>1636132643.8236074</v>
       </c>
       <c r="J65" s="11">
         <f t="shared" si="10"/>
-        <v>129.89535330883729</v>
+        <v>129.89535330883629</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.8">
@@ -3249,11 +3259,11 @@
       </c>
       <c r="I66" s="11">
         <f>EXP('Regression (1)'!$B$17)*D66^('Regression (1)'!$B$18)</f>
-        <v>1801575244.7574785</v>
+        <v>1801575244.7574635</v>
       </c>
       <c r="J66" s="11">
         <f t="shared" si="10"/>
-        <v>141.61629559014963</v>
+        <v>141.61629559014847</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.8">
@@ -3288,11 +3298,11 @@
       </c>
       <c r="I67" s="11">
         <f>EXP('Regression (1)'!$B$17)*D67^('Regression (1)'!$B$18)</f>
-        <v>1859443581.425509</v>
+        <v>1859443581.425493</v>
       </c>
       <c r="J67" s="11">
         <f t="shared" si="10"/>
-        <v>144.73193862039378</v>
+        <v>144.73193862039253</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.8">
@@ -3327,11 +3337,11 @@
       </c>
       <c r="I68" s="11">
         <f>EXP('Regression (1)'!$B$17)*D68^('Regression (1)'!$B$18)</f>
-        <v>1825589364.2393444</v>
+        <v>1825589364.239331</v>
       </c>
       <c r="J68" s="11">
         <f t="shared" si="10"/>
-        <v>140.69510725901463</v>
+        <v>140.69510725901361</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.8">
@@ -3366,11 +3376,11 @@
       </c>
       <c r="I69" s="11">
         <f>EXP('Regression (1)'!$B$17)*D69^('Regression (1)'!$B$18)</f>
-        <v>2499267967.4161119</v>
+        <v>2499267967.4160914</v>
       </c>
       <c r="J69" s="11">
         <f t="shared" si="10"/>
-        <v>190.87415169134337</v>
+        <v>190.87415169134181</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.8">
@@ -3405,11 +3415,11 @@
       </c>
       <c r="I70" s="11">
         <f>EXP('Regression (1)'!$B$17)*D70^('Regression (1)'!$B$18)</f>
-        <v>1953024999.5085058</v>
+        <v>1953024999.5084898</v>
       </c>
       <c r="J70" s="11">
         <f t="shared" si="10"/>
-        <v>147.71053488669475</v>
+        <v>147.71053488669355</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.8">
@@ -3444,11 +3454,11 @@
       </c>
       <c r="I71" s="11">
         <f>EXP('Regression (1)'!$B$17)*D71^('Regression (1)'!$B$18)</f>
-        <v>2672746053.3422198</v>
+        <v>2672746053.3421984</v>
       </c>
       <c r="J71" s="11">
         <f t="shared" si="10"/>
-        <v>200.34939316717569</v>
+        <v>200.3493931671741</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13.8">
@@ -3483,11 +3493,11 @@
       </c>
       <c r="I72" s="11">
         <f>EXP('Regression (1)'!$B$17)*D72^('Regression (1)'!$B$18)</f>
-        <v>2908604356.6330237</v>
+        <v>2908604356.6330013</v>
       </c>
       <c r="J72" s="11">
         <f t="shared" si="10"/>
-        <v>216.13781173485697</v>
+        <v>216.13781173485529</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.8">
@@ -3522,11 +3532,11 @@
       </c>
       <c r="I73" s="11">
         <f>EXP('Regression (1)'!$B$17)*D73^('Regression (1)'!$B$18)</f>
-        <v>3634636804.4701533</v>
+        <v>3634636804.4701238</v>
       </c>
       <c r="J73" s="11">
         <f t="shared" si="10"/>
-        <v>267.88746161180836</v>
+        <v>267.8874616118062</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13.8">
@@ -3561,11 +3571,11 @@
       </c>
       <c r="I74" s="11">
         <f>EXP('Regression (1)'!$B$17)*D74^('Regression (1)'!$B$18)</f>
-        <v>3537360745.5351262</v>
+        <v>3537360745.5351019</v>
       </c>
       <c r="J74" s="11">
         <f t="shared" si="10"/>
-        <v>258.57474899244176</v>
+        <v>258.57474899243994</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13.8">
@@ -3600,11 +3610,11 @@
       </c>
       <c r="I75" s="11">
         <f>EXP('Regression (1)'!$B$17)*D75^('Regression (1)'!$B$18)</f>
-        <v>3557402663.8338847</v>
+        <v>3557402663.833859</v>
       </c>
       <c r="J75" s="11">
         <f t="shared" si="10"/>
-        <v>257.90427837995321</v>
+        <v>257.90427837995134</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13.8">
@@ -3639,11 +3649,11 @@
       </c>
       <c r="I76" s="11">
         <f>EXP('Regression (1)'!$B$17)*D76^('Regression (1)'!$B$18)</f>
-        <v>4713586608.6964979</v>
+        <v>4713586608.6964607</v>
       </c>
       <c r="J76" s="11">
         <f t="shared" ref="J76:J107" si="16">I76/C76</f>
-        <v>339.13195819810437</v>
+        <v>339.1319581981017</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.8">
@@ -3678,11 +3688,11 @@
       </c>
       <c r="I77" s="11">
         <f>EXP('Regression (1)'!$B$17)*D77^('Regression (1)'!$B$18)</f>
-        <v>3719739047.3084641</v>
+        <v>3719739047.3084373</v>
       </c>
       <c r="J77" s="11">
         <f t="shared" si="16"/>
-        <v>265.45389358323411</v>
+        <v>265.45389358323223</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13.8">
@@ -3717,11 +3727,11 @@
       </c>
       <c r="I78" s="11">
         <f>EXP('Regression (1)'!$B$17)*D78^('Regression (1)'!$B$18)</f>
-        <v>4860553944.4927549</v>
+        <v>4860553944.4927225</v>
       </c>
       <c r="J78" s="11">
         <f t="shared" si="16"/>
-        <v>344.25380828046792</v>
+        <v>344.25380828046565</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13.8">
@@ -3756,11 +3766,11 @@
       </c>
       <c r="I79" s="11">
         <f>EXP('Regression (1)'!$B$17)*D79^('Regression (1)'!$B$18)</f>
-        <v>4220602787.4006915</v>
+        <v>4220602787.4006596</v>
       </c>
       <c r="J79" s="11">
         <f t="shared" si="16"/>
-        <v>296.58382038867956</v>
+        <v>296.58382038867728</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.8">
@@ -3795,11 +3805,11 @@
       </c>
       <c r="I80" s="11">
         <f>EXP('Regression (1)'!$B$17)*D80^('Regression (1)'!$B$18)</f>
-        <v>4643792177.7130795</v>
+        <v>4643792177.7130432</v>
       </c>
       <c r="J80" s="11">
         <f t="shared" si="16"/>
-        <v>323.82866979280936</v>
+        <v>323.82866979280686</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13.8">
@@ -3834,11 +3844,11 @@
       </c>
       <c r="I81" s="11">
         <f>EXP('Regression (1)'!$B$17)*D81^('Regression (1)'!$B$18)</f>
-        <v>4084571435.0794797</v>
+        <v>4084571435.0794482</v>
       </c>
       <c r="J81" s="11">
         <f t="shared" si="16"/>
-        <v>282.57446013479762</v>
+        <v>282.57446013479546</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.8">
@@ -3873,11 +3883,11 @@
       </c>
       <c r="I82" s="11">
         <f>EXP('Regression (1)'!$B$17)*D82^('Regression (1)'!$B$18)</f>
-        <v>4170676881.9284091</v>
+        <v>4170676881.9283781</v>
       </c>
       <c r="J82" s="11">
         <f t="shared" si="16"/>
-        <v>286.25639000931102</v>
+        <v>286.25639000930892</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13.8">
@@ -3912,11 +3922,11 @@
       </c>
       <c r="I83" s="11">
         <f>EXP('Regression (1)'!$B$17)*D83^('Regression (1)'!$B$18)</f>
-        <v>4737139858.9723434</v>
+        <v>4737139858.9723101</v>
       </c>
       <c r="J83" s="11">
         <f t="shared" si="16"/>
-        <v>322.66158035972899</v>
+        <v>322.66158035972671</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.8">
@@ -3951,11 +3961,11 @@
       </c>
       <c r="I84" s="11">
         <f>EXP('Regression (1)'!$B$17)*D84^('Regression (1)'!$B$18)</f>
-        <v>4542778812.3614426</v>
+        <v>4542778812.3614082</v>
       </c>
       <c r="J84" s="11">
         <f t="shared" si="16"/>
-        <v>307.03890806710461</v>
+        <v>307.03890806710228</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.8">
@@ -3990,11 +4000,11 @@
       </c>
       <c r="I85" s="11">
         <f>EXP('Regression (1)'!$B$17)*D85^('Regression (1)'!$B$18)</f>
-        <v>4370572297.4423418</v>
+        <v>4370572297.4423065</v>
       </c>
       <c r="J85" s="11">
         <f t="shared" si="16"/>
-        <v>293.09734134108623</v>
+        <v>293.09734134108385</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.8">
@@ -4029,11 +4039,11 @@
       </c>
       <c r="I86" s="11">
         <f>EXP('Regression (1)'!$B$17)*D86^('Regression (1)'!$B$18)</f>
-        <v>3337445963.4957294</v>
+        <v>3337445963.4957037</v>
       </c>
       <c r="J86" s="11">
         <f t="shared" si="16"/>
-        <v>221.93047485550045</v>
+        <v>221.93047485549872</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13.8">
@@ -4068,11 +4078,11 @@
       </c>
       <c r="I87" s="11">
         <f>EXP('Regression (1)'!$B$17)*D87^('Regression (1)'!$B$18)</f>
-        <v>3956898300.111146</v>
+        <v>3956898300.1111121</v>
       </c>
       <c r="J87" s="11">
         <f t="shared" si="16"/>
-        <v>261.01041397705768</v>
+        <v>261.01041397705541</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13.8">
@@ -4107,11 +4117,11 @@
       </c>
       <c r="I88" s="11">
         <f>EXP('Regression (1)'!$B$17)*D88^('Regression (1)'!$B$18)</f>
-        <v>5157243184.3368454</v>
+        <v>5157243184.3368111</v>
       </c>
       <c r="J88" s="11">
         <f t="shared" si="16"/>
-        <v>337.65457898036306</v>
+        <v>337.65457898036078</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.8">
@@ -4146,11 +4156,11 @@
       </c>
       <c r="I89" s="11">
         <f>EXP('Regression (1)'!$B$17)*D89^('Regression (1)'!$B$18)</f>
-        <v>5199365873.8651953</v>
+        <v>5199365873.8651533</v>
       </c>
       <c r="J89" s="11">
         <f t="shared" si="16"/>
-        <v>337.88060467633073</v>
+        <v>337.88060467632801</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13.8">
@@ -4185,11 +4195,11 @@
       </c>
       <c r="I90" s="11">
         <f>EXP('Regression (1)'!$B$17)*D90^('Regression (1)'!$B$18)</f>
-        <v>5864620893.7313919</v>
+        <v>5864620893.7313499</v>
       </c>
       <c r="J90" s="11">
         <f t="shared" si="16"/>
-        <v>378.37118217065495</v>
+        <v>378.37118217065222</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13.8">
@@ -4224,11 +4234,11 @@
       </c>
       <c r="I91" s="11">
         <f>EXP('Regression (1)'!$B$17)*D91^('Regression (1)'!$B$18)</f>
-        <v>5320957540.1693459</v>
+        <v>5320957540.1693087</v>
       </c>
       <c r="J91" s="11">
         <f t="shared" si="16"/>
-        <v>340.75609521326055</v>
+        <v>340.75609521325822</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.8">
@@ -4263,11 +4273,11 @@
       </c>
       <c r="I92" s="11">
         <f>EXP('Regression (1)'!$B$17)*D92^('Regression (1)'!$B$18)</f>
-        <v>6166802949.6362419</v>
+        <v>6166802949.6361933</v>
       </c>
       <c r="J92" s="11">
         <f t="shared" si="16"/>
-        <v>392.12126768751011</v>
+        <v>392.12126768750704</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13.8">
@@ -4278,7 +4288,7 @@
         <v>4365</v>
       </c>
       <c r="C93" s="19">
-        <f t="shared" ref="C93:C125" si="17">C92+B93*12.5</f>
+        <f t="shared" ref="C93:C138" si="17">C92+B93*12.5</f>
         <v>15781337.5</v>
       </c>
       <c r="D93" s="9">
@@ -4302,11 +4312,11 @@
       </c>
       <c r="I93" s="11">
         <f>EXP('Regression (1)'!$B$17)*D93^('Regression (1)'!$B$18)</f>
-        <v>77944714648.94812</v>
+        <v>77944714648.947693</v>
       </c>
       <c r="J93" s="11">
         <f t="shared" si="16"/>
-        <v>4939.0436424636455</v>
+        <v>4939.0436424636182</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13.8">
@@ -4341,11 +4351,11 @@
       </c>
       <c r="I94" s="11">
         <f>EXP('Regression (1)'!$B$17)*D94^('Regression (1)'!$B$18)</f>
-        <v>63303600534.132515</v>
+        <v>63303600534.132126</v>
       </c>
       <c r="J94" s="11">
         <f t="shared" si="16"/>
-        <v>3996.5781977361912</v>
+        <v>3996.5781977361667</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13.8">
@@ -4380,11 +4390,11 @@
       </c>
       <c r="I95" s="11">
         <f>EXP('Regression (1)'!$B$17)*D95^('Regression (1)'!$B$18)</f>
-        <v>69374122811.523727</v>
+        <v>69374122811.5233</v>
       </c>
       <c r="J95" s="11">
         <f t="shared" si="16"/>
-        <v>4364.171370926937</v>
+        <v>4364.1713709269097</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13.8">
@@ -4419,11 +4429,11 @@
       </c>
       <c r="I96" s="11">
         <f>EXP('Regression (1)'!$B$17)*D96^('Regression (1)'!$B$18)</f>
-        <v>70474498214.434128</v>
+        <v>70474498214.433701</v>
       </c>
       <c r="J96" s="11">
         <f t="shared" si="16"/>
-        <v>4417.6087051759814</v>
+        <v>4417.6087051759541</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13.8">
@@ -4458,11 +4468,11 @@
       </c>
       <c r="I97" s="11">
         <f>EXP('Regression (1)'!$B$17)*D97^('Regression (1)'!$B$18)</f>
-        <v>73157816031.34639</v>
+        <v>73157816031.345917</v>
       </c>
       <c r="J97" s="11">
         <f t="shared" si="16"/>
-        <v>4569.6502721100842</v>
+        <v>4569.6502721100542</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13.8">
@@ -4497,11 +4507,11 @@
       </c>
       <c r="I98" s="11">
         <f>EXP('Regression (1)'!$B$17)*D98^('Regression (1)'!$B$18)</f>
-        <v>64679219690.780067</v>
+        <v>64679219690.779625</v>
       </c>
       <c r="J98" s="11">
         <f t="shared" si="16"/>
-        <v>4025.3059431720558</v>
+        <v>4025.305943172028</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13.8">
@@ -4536,11 +4546,11 @@
       </c>
       <c r="I99" s="11">
         <f>EXP('Regression (1)'!$B$17)*D99^('Regression (1)'!$B$18)</f>
-        <v>55837579081.721855</v>
+        <v>55837579081.721489</v>
       </c>
       <c r="J99" s="11">
         <f t="shared" si="16"/>
-        <v>3461.8187786839594</v>
+        <v>3461.8187786839367</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13.8">
@@ -4575,11 +4585,11 @@
       </c>
       <c r="I100" s="11">
         <f>EXP('Regression (1)'!$B$17)*D100^('Regression (1)'!$B$18)</f>
-        <v>93713518133.745163</v>
+        <v>93713518133.744598</v>
       </c>
       <c r="J100" s="11">
         <f t="shared" si="16"/>
-        <v>5790.9558338782399</v>
+        <v>5790.9558338782053</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13.8">
@@ -4614,11 +4624,11 @@
       </c>
       <c r="I101" s="11">
         <f>EXP('Regression (1)'!$B$17)*D101^('Regression (1)'!$B$18)</f>
-        <v>70447266644.952164</v>
+        <v>70447266644.951675</v>
       </c>
       <c r="J101" s="11">
         <f t="shared" si="16"/>
-        <v>4337.7156004468525</v>
+        <v>4337.7156004468225</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13.8">
@@ -4653,11 +4663,11 @@
       </c>
       <c r="I102" s="11">
         <f>EXP('Regression (1)'!$B$17)*D102^('Regression (1)'!$B$18)</f>
-        <v>82952090454.288239</v>
+        <v>82952090454.287766</v>
       </c>
       <c r="J102" s="11">
         <f t="shared" si="16"/>
-        <v>5090.2993247185941</v>
+        <v>5090.299324718565</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13.8">
@@ -4692,11 +4702,11 @@
       </c>
       <c r="I103" s="11">
         <f>EXP('Regression (1)'!$B$17)*D103^('Regression (1)'!$B$18)</f>
-        <v>61452562770.020088</v>
+        <v>61452562770.019722</v>
       </c>
       <c r="J103" s="11">
         <f t="shared" si="16"/>
-        <v>3757.0125976959125</v>
+        <v>3757.0125976958902</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13.8">
@@ -4731,11 +4741,11 @@
       </c>
       <c r="I104" s="11">
         <f>EXP('Regression (1)'!$B$17)*D104^('Regression (1)'!$B$18)</f>
-        <v>83007841437.96698</v>
+        <v>83007841437.966476</v>
       </c>
       <c r="J104" s="11">
         <f t="shared" si="16"/>
-        <v>5057.5526461581148</v>
+        <v>5057.5526461580839</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13.8">
@@ -4770,11 +4780,11 @@
       </c>
       <c r="I105" s="11">
         <f>EXP('Regression (1)'!$B$17)*D105^('Regression (1)'!$B$18)</f>
-        <v>61585492896.508385</v>
+        <v>61585492896.508026</v>
       </c>
       <c r="J105" s="11">
         <f t="shared" si="16"/>
-        <v>3738.4072452653172</v>
+        <v>3738.4072452652954</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13.8">
@@ -4809,11 +4819,11 @@
       </c>
       <c r="I106" s="11">
         <f>EXP('Regression (1)'!$B$17)*D106^('Regression (1)'!$B$18)</f>
-        <v>89741209662.558716</v>
+        <v>89741209662.558121</v>
       </c>
       <c r="J106" s="11">
         <f t="shared" si="16"/>
-        <v>5429.3844479066065</v>
+        <v>5429.3844479065701</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13.8">
@@ -4848,11 +4858,11 @@
       </c>
       <c r="I107" s="11">
         <f>EXP('Regression (1)'!$B$17)*D107^('Regression (1)'!$B$18)</f>
-        <v>64657604893.638153</v>
+        <v>64657604893.637733</v>
       </c>
       <c r="J107" s="11">
         <f t="shared" si="16"/>
-        <v>3897.5046633380416</v>
+        <v>3897.5046633380166</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13.8">
@@ -4867,14 +4877,14 @@
         <v>16649712.5</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" ref="D108:D139" si="18">(C107-$C$9)/((C108-C107)*12)</f>
+        <f t="shared" ref="D108:D138" si="18">(C107-$C$9)/((C108-C107)*12)</f>
         <v>21.545229694202298</v>
       </c>
       <c r="E108" s="11">
         <v>6445</v>
       </c>
       <c r="F108" s="11">
-        <f t="shared" ref="F108:F139" si="19">C108*E108</f>
+        <f t="shared" ref="F108:F126" si="19">C108*E108</f>
         <v>107307397062.5</v>
       </c>
       <c r="G108" s="13">
@@ -4882,16 +4892,16 @@
         <v>3.0701544321482332</v>
       </c>
       <c r="H108" s="13">
-        <f t="shared" ref="H108:H125" si="21">LN(F108)</f>
+        <f t="shared" ref="H108:H126" si="21">LN(F108)</f>
         <v>25.398963422347666</v>
       </c>
       <c r="I108" s="11">
         <f>EXP('Regression (1)'!$B$17)*D108^('Regression (1)'!$B$18)</f>
-        <v>67331427236.168716</v>
+        <v>67331427236.168312</v>
       </c>
       <c r="J108" s="11">
-        <f t="shared" ref="J108:J139" si="22">I108/C108</f>
-        <v>4043.9993925521967</v>
+        <f t="shared" ref="J108:J125" si="22">I108/C108</f>
+        <v>4043.9993925521726</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13.8">
@@ -4926,11 +4936,11 @@
       </c>
       <c r="I109" s="11">
         <f>EXP('Regression (1)'!$B$17)*D109^('Regression (1)'!$B$18)</f>
-        <v>95793752718.134857</v>
+        <v>95793752718.134216</v>
       </c>
       <c r="J109" s="11">
         <f t="shared" si="22"/>
-        <v>5734.6462250193163</v>
+        <v>5734.6462250192781</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13.8">
@@ -4965,11 +4975,11 @@
       </c>
       <c r="I110" s="11">
         <f>EXP('Regression (1)'!$B$17)*D110^('Regression (1)'!$B$18)</f>
-        <v>59448063805.050888</v>
+        <v>59448063805.050468</v>
       </c>
       <c r="J110" s="11">
         <f t="shared" si="22"/>
-        <v>3545.4868153722814</v>
+        <v>3545.4868153722564</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13.8">
@@ -5004,11 +5014,11 @@
       </c>
       <c r="I111" s="11">
         <f>EXP('Regression (1)'!$B$17)*D111^('Regression (1)'!$B$18)</f>
-        <v>59207343387.746376</v>
+        <v>59207343387.74601</v>
       </c>
       <c r="J111" s="11">
         <f t="shared" si="22"/>
-        <v>3517.8731026894802</v>
+        <v>3517.8731026894584</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13.8">
@@ -5043,11 +5053,11 @@
       </c>
       <c r="I112" s="11">
         <f>EXP('Regression (1)'!$B$17)*D112^('Regression (1)'!$B$18)</f>
-        <v>100135114296.19987</v>
+        <v>100135114296.19925</v>
       </c>
       <c r="J112" s="11">
         <f t="shared" si="22"/>
-        <v>5930.4008158814968</v>
+        <v>5930.4008158814604</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="13.8">
@@ -5082,11 +5092,11 @@
       </c>
       <c r="I113" s="11">
         <f>EXP('Regression (1)'!$B$17)*D113^('Regression (1)'!$B$18)</f>
-        <v>81146670251.122864</v>
+        <v>81146670251.122269</v>
       </c>
       <c r="J113" s="11">
         <f t="shared" si="22"/>
-        <v>4789.3249593605042</v>
+        <v>4789.3249593604687</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.8">
@@ -5121,11 +5131,11 @@
       </c>
       <c r="I114" s="11">
         <f>EXP('Regression (1)'!$B$17)*D114^('Regression (1)'!$B$18)</f>
-        <v>85043222049.055359</v>
+        <v>85043222049.054779</v>
       </c>
       <c r="J114" s="11">
         <f t="shared" si="22"/>
-        <v>5002.2886808863586</v>
+        <v>5002.2886808863241</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.8">
@@ -5160,11 +5170,11 @@
       </c>
       <c r="I115" s="11">
         <f>EXP('Regression (1)'!$B$17)*D115^('Regression (1)'!$B$18)</f>
-        <v>79468766595.197449</v>
+        <v>79468766595.196945</v>
       </c>
       <c r="J115" s="11">
         <f t="shared" si="22"/>
-        <v>4658.2404330171876</v>
+        <v>4658.2404330171585</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13.8">
@@ -5199,11 +5209,11 @@
       </c>
       <c r="I116" s="11">
         <f>EXP('Regression (1)'!$B$17)*D116^('Regression (1)'!$B$18)</f>
-        <v>87913623039.065201</v>
+        <v>87913623039.064667</v>
       </c>
       <c r="J116" s="11">
         <f t="shared" si="22"/>
-        <v>5135.9440239094138</v>
+        <v>5135.9440239093819</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13.8">
@@ -5238,11 +5248,11 @@
       </c>
       <c r="I117" s="11">
         <f>EXP('Regression (1)'!$B$17)*D117^('Regression (1)'!$B$18)</f>
-        <v>85970935712.528061</v>
+        <v>85970935712.527435</v>
       </c>
       <c r="J117" s="11">
         <f t="shared" si="22"/>
-        <v>5005.4692008644961</v>
+        <v>5005.4692008644597</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.8">
@@ -5277,11 +5287,11 @@
       </c>
       <c r="I118" s="11">
         <f>EXP('Regression (1)'!$B$17)*D118^('Regression (1)'!$B$18)</f>
-        <v>77485764653.004517</v>
+        <v>77485764653.004044</v>
       </c>
       <c r="J118" s="11">
         <f t="shared" si="22"/>
-        <v>4495.7236886504634</v>
+        <v>4495.7236886504361</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.8">
@@ -5316,11 +5326,11 @@
       </c>
       <c r="I119" s="11">
         <f>EXP('Regression (1)'!$B$17)*D119^('Regression (1)'!$B$18)</f>
-        <v>105141432459.25269</v>
+        <v>105141432459.25195</v>
       </c>
       <c r="J119" s="11">
         <f t="shared" si="22"/>
-        <v>6080.8171143840646</v>
+        <v>6080.8171143840218</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.8">
@@ -5355,11 +5365,11 @@
       </c>
       <c r="I120" s="11">
         <f>EXP('Regression (1)'!$B$17)*D120^('Regression (1)'!$B$18)</f>
-        <v>109850186728.01512</v>
+        <v>109850186728.0144</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="22"/>
-        <v>6333.0973955225982</v>
+        <v>6333.0973955225572</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="13.8">
@@ -5394,11 +5404,11 @@
       </c>
       <c r="I121" s="11">
         <f>EXP('Regression (1)'!$B$17)*D121^('Regression (1)'!$B$18)</f>
-        <v>171435135910.75571</v>
+        <v>171435135910.75467</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="22"/>
-        <v>9856.1130467274997</v>
+        <v>9856.1130467274397</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="13.8">
@@ -5433,11 +5443,11 @@
       </c>
       <c r="I122" s="11">
         <f>EXP('Regression (1)'!$B$17)*D122^('Regression (1)'!$B$18)</f>
-        <v>112671169488.61266</v>
+        <v>112671169488.61188</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="22"/>
-        <v>6457.3648693431751</v>
+        <v>6457.3648693431305</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.8">
@@ -5472,11 +5482,11 @@
       </c>
       <c r="I123" s="11">
         <f>EXP('Regression (1)'!$B$17)*D123^('Regression (1)'!$B$18)</f>
-        <v>101286199542.04762</v>
+        <v>101286199542.04697</v>
       </c>
       <c r="J123" s="11">
         <f t="shared" si="22"/>
-        <v>5786.1172557926611</v>
+        <v>5786.1172557926238</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.8">
@@ -5511,11 +5521,11 @@
       </c>
       <c r="I124" s="11">
         <f>EXP('Regression (1)'!$B$17)*D124^('Regression (1)'!$B$18)</f>
-        <v>141819396089.65665</v>
+        <v>141819396089.65585</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="22"/>
-        <v>8077.8394501017647</v>
+        <v>8077.8394501017201</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.8">
@@ -5550,12 +5560,468 @@
       </c>
       <c r="I125" s="11">
         <f>EXP('Regression (1)'!$B$17)*D125^('Regression (1)'!$B$18)</f>
-        <v>107339908575.12096</v>
+        <v>107339908575.12035</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="22"/>
-        <v>6094.4953371518659</v>
-      </c>
+        <v>6094.4953371518313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="13.8">
+      <c r="A126" s="4">
+        <v>43556</v>
+      </c>
+      <c r="B126" s="19">
+        <f>AVERAGE($B$75:$B$125)</f>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C126" s="19">
+        <f t="shared" si="17"/>
+        <v>17669641.176470589</v>
+      </c>
+      <c r="D126" s="9">
+        <f t="shared" si="18"/>
+        <v>24.242501976556042</v>
+      </c>
+      <c r="E126" s="11">
+        <v>5300</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" ref="F126:F138" si="23">C126*E126</f>
+        <v>93649098235.294128</v>
+      </c>
+      <c r="G126" s="13">
+        <f t="shared" ref="G126:G138" si="24">LN(D126)</f>
+        <v>3.188107372729243</v>
+      </c>
+      <c r="H126" s="13">
+        <f t="shared" ref="H126:H138" si="25">LN(F126)</f>
+        <v>25.262820636695587</v>
+      </c>
+      <c r="I126" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D126^('Regression (1)'!$B$18)</f>
+        <v>101824936698.43944</v>
+      </c>
+      <c r="J126" s="11">
+        <f t="shared" ref="J126:J138" si="26">I126/C126</f>
+        <v>5762.7054042292893</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="13.8">
+      <c r="A127" s="4">
+        <v>43586</v>
+      </c>
+      <c r="B127" s="19">
+        <f t="shared" ref="B127:B138" si="27">AVERAGE($B$75:$B$125)</f>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C127" s="19">
+        <f t="shared" si="17"/>
+        <v>17726682.352941178</v>
+      </c>
+      <c r="D127" s="9">
+        <f t="shared" si="18"/>
+        <v>24.325835309889378</v>
+      </c>
+      <c r="E127" s="11">
+        <v>8550</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="23"/>
+        <v>151563134117.64706</v>
+      </c>
+      <c r="G127" s="13">
+        <f t="shared" si="24"/>
+        <v>3.1915389670462773</v>
+      </c>
+      <c r="H127" s="13">
+        <f t="shared" si="25"/>
+        <v>25.744268101938474</v>
+      </c>
+      <c r="I127" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D127^('Regression (1)'!$B$18)</f>
+        <v>103057663581.50114</v>
+      </c>
+      <c r="J127" s="11">
+        <f t="shared" si="26"/>
+        <v>5813.702842393518</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="13.8">
+      <c r="A128" s="4">
+        <v>43617</v>
+      </c>
+      <c r="B128" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C128" s="19">
+        <f t="shared" si="17"/>
+        <v>17783723.529411767</v>
+      </c>
+      <c r="D128" s="9">
+        <f t="shared" si="18"/>
+        <v>24.40916864322271</v>
+      </c>
+      <c r="E128" s="11">
+        <v>10750</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="23"/>
+        <v>191175027941.17648</v>
+      </c>
+      <c r="G128" s="13">
+        <f t="shared" si="24"/>
+        <v>3.1949588257840245</v>
+      </c>
+      <c r="H128" s="13">
+        <f t="shared" si="25"/>
+        <v>25.97645522203166</v>
+      </c>
+      <c r="I128" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D128^('Regression (1)'!$B$18)</f>
+        <v>104301021841.26398</v>
+      </c>
+      <c r="J128" s="11">
+        <f t="shared" si="26"/>
+        <v>5864.9709476626094</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="13.8">
+      <c r="A129" s="4">
+        <v>43647</v>
+      </c>
+      <c r="B129" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C129" s="19">
+        <f t="shared" si="17"/>
+        <v>17840764.705882356</v>
+      </c>
+      <c r="D129" s="9">
+        <f t="shared" si="18"/>
+        <v>24.492501976556042</v>
+      </c>
+      <c r="E129" s="11">
+        <v>10030</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="23"/>
+        <v>178942870000.00003</v>
+      </c>
+      <c r="G129" s="13">
+        <f t="shared" si="24"/>
+        <v>3.1983670289371182</v>
+      </c>
+      <c r="H129" s="13">
+        <f t="shared" si="25"/>
+        <v>25.910332429832959</v>
+      </c>
+      <c r="I129" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D129^('Regression (1)'!$B$18)</f>
+        <v>105555066400.08682</v>
+      </c>
+      <c r="J129" s="11">
+        <f t="shared" si="26"/>
+        <v>5916.5102023504523</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="13.8">
+      <c r="A130" s="4">
+        <v>43678</v>
+      </c>
+      <c r="B130" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C130" s="19">
+        <f t="shared" si="17"/>
+        <v>17897805.882352944</v>
+      </c>
+      <c r="D130" s="9">
+        <f t="shared" si="18"/>
+        <v>24.575835309889378</v>
+      </c>
+      <c r="E130" s="11">
+        <v>9600</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="23"/>
+        <v>171818936470.58826</v>
+      </c>
+      <c r="G130" s="13">
+        <f t="shared" si="24"/>
+        <v>3.2017636556850517</v>
+      </c>
+      <c r="H130" s="13">
+        <f t="shared" si="25"/>
+        <v>25.869707064348948</v>
+      </c>
+      <c r="I130" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D130^('Regression (1)'!$B$18)</f>
+        <v>106819852275.42307</v>
+      </c>
+      <c r="J130" s="11">
+        <f t="shared" si="26"/>
+        <v>5968.3210879354974</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="13.8">
+      <c r="A131" s="4">
+        <v>43709</v>
+      </c>
+      <c r="B131" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C131" s="19">
+        <f t="shared" si="17"/>
+        <v>17954847.058823533</v>
+      </c>
+      <c r="D131" s="9">
+        <f t="shared" si="18"/>
+        <v>24.65916864322271</v>
+      </c>
+      <c r="E131" s="11">
+        <v>8260</v>
+      </c>
+      <c r="F131" s="11">
+        <f t="shared" si="23"/>
+        <v>148307036705.88239</v>
+      </c>
+      <c r="G131" s="13">
+        <f t="shared" si="24"/>
+        <v>3.2051487844032187</v>
+      </c>
+      <c r="H131" s="13">
+        <f t="shared" si="25"/>
+        <v>25.722550534093973</v>
+      </c>
+      <c r="I131" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D131^('Regression (1)'!$B$18)</f>
+        <v>108095434579.66219</v>
+      </c>
+      <c r="J131" s="11">
+        <f t="shared" si="26"/>
+        <v>6020.4040850652054</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="13.8">
+      <c r="A132" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B132" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C132" s="19">
+        <f t="shared" si="17"/>
+        <v>18011888.235294122</v>
+      </c>
+      <c r="D132" s="9">
+        <f t="shared" si="18"/>
+        <v>24.742501976556042</v>
+      </c>
+      <c r="E132" s="11">
+        <v>9180</v>
+      </c>
+      <c r="F132" s="11">
+        <f t="shared" si="23"/>
+        <v>165349134000.00003</v>
+      </c>
+      <c r="G132" s="13">
+        <f t="shared" si="24"/>
+        <v>3.2085224926737639</v>
+      </c>
+      <c r="H132" s="13">
+        <f t="shared" si="25"/>
+        <v>25.831325038985234</v>
+      </c>
+      <c r="I132" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D132^('Regression (1)'!$B$18)</f>
+        <v>109381868519.97069</v>
+      </c>
+      <c r="J132" s="11">
+        <f t="shared" si="26"/>
+        <v>6072.7596735603747</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="13.8">
+      <c r="A133" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B133" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C133" s="19">
+        <f t="shared" si="17"/>
+        <v>18068929.411764711</v>
+      </c>
+      <c r="D133" s="9">
+        <f t="shared" si="18"/>
+        <v>24.825835309889378</v>
+      </c>
+      <c r="E133" s="11">
+        <v>7564</v>
+      </c>
+      <c r="F133" s="11">
+        <f t="shared" si="23"/>
+        <v>136673382070.58827</v>
+      </c>
+      <c r="G133" s="13">
+        <f t="shared" si="24"/>
+        <v>3.21188485729625</v>
+      </c>
+      <c r="H133" s="13">
+        <f t="shared" si="25"/>
+        <v>25.640859843871333</v>
+      </c>
+      <c r="I133" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D133^('Regression (1)'!$B$18)</f>
+        <v>110679209398.13316</v>
+      </c>
+      <c r="J133" s="11">
+        <f t="shared" si="26"/>
+        <v>6125.388332419393</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="13.8">
+      <c r="A134" s="4">
+        <v>43800</v>
+      </c>
+      <c r="B134" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C134" s="19">
+        <f t="shared" si="17"/>
+        <v>18125970.5882353</v>
+      </c>
+      <c r="D134" s="9">
+        <f t="shared" si="18"/>
+        <v>24.90916864322271</v>
+      </c>
+      <c r="E134" s="11">
+        <v>7169</v>
+      </c>
+      <c r="F134" s="11">
+        <f t="shared" si="23"/>
+        <v>129945083147.05887</v>
+      </c>
+      <c r="G134" s="13">
+        <f t="shared" si="24"/>
+        <v>3.2152359542981506</v>
+      </c>
+      <c r="H134" s="13">
+        <f t="shared" si="25"/>
+        <v>25.590377760819891</v>
+      </c>
+      <c r="I134" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D134^('Regression (1)'!$B$18)</f>
+        <v>111987512610.39648</v>
+      </c>
+      <c r="J134" s="11">
+        <f t="shared" si="26"/>
+        <v>6178.2905398225803</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="13.8">
+      <c r="A135" s="4">
+        <v>43831</v>
+      </c>
+      <c r="B135" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C135" s="19">
+        <f t="shared" si="17"/>
+        <v>18183011.764705889</v>
+      </c>
+      <c r="D135" s="9">
+        <f t="shared" si="18"/>
+        <v>24.992501976556042</v>
+      </c>
+      <c r="E135" s="11">
+        <v>9279</v>
+      </c>
+      <c r="F135" s="11">
+        <f t="shared" si="23"/>
+        <v>168720166164.70593</v>
+      </c>
+      <c r="G135" s="13">
+        <f t="shared" si="24"/>
+        <v>3.218575858945163</v>
+      </c>
+      <c r="H135" s="13">
+        <f t="shared" si="25"/>
+        <v>25.851507357971268</v>
+      </c>
+      <c r="I135" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D135^('Regression (1)'!$B$18)</f>
+        <v>113306833647.31108</v>
+      </c>
+      <c r="J135" s="11">
+        <f t="shared" si="26"/>
+        <v>6231.4667731362943</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="13.8">
+      <c r="A136" s="4">
+        <v>43862</v>
+      </c>
+      <c r="B136" s="19">
+        <f t="shared" si="27"/>
+        <v>4563.2941176470586</v>
+      </c>
+      <c r="C136" s="19">
+        <f t="shared" si="17"/>
+        <v>18240052.941176478</v>
+      </c>
+      <c r="D136" s="9">
+        <f t="shared" si="18"/>
+        <v>25.075835309889378</v>
+      </c>
+      <c r="E136" s="11">
+        <v>8542</v>
+      </c>
+      <c r="F136" s="11">
+        <f t="shared" si="23"/>
+        <v>155806532223.52948</v>
+      </c>
+      <c r="G136" s="13">
+        <f t="shared" si="24"/>
+        <v>3.2219046457513523</v>
+      </c>
+      <c r="H136" s="13">
+        <f t="shared" si="25"/>
+        <v>25.77188089648444</v>
+      </c>
+      <c r="I136" s="11">
+        <f>EXP('Regression (1)'!$B$17)*D136^('Regression (1)'!$B$18)</f>
+        <v>114637228093.57755</v>
+      </c>
+      <c r="J136" s="11">
+        <f t="shared" si="26"/>
+        <v>6284.9175089172459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="13.8">
+      <c r="A137" s="4"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="9"/>
+      <c r="F137" s="11"/>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="1:10" ht="13.8">
+      <c r="A138" s="4"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="9"/>
+      <c r="F138" s="11"/>
+      <c r="I138" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -5568,7 +6034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5597,7 +6063,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="28" t="str">
-        <f ca="1">CONCATENATE("Column"," ",CELL("col",Sheet1!$H$12:$H$125))</f>
+        <f ca="1">CONCATENATE("Column"," ",CELL("col",sf!$H$12:$H$125))</f>
         <v>Column 8</v>
       </c>
     </row>
@@ -5624,7 +6090,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="25">
-        <f t="array" ref="B5">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),3,1)</f>
+        <f t="array" ref="B5">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),3,1)</f>
         <v>0.95100037386007241</v>
       </c>
     </row>
@@ -5633,7 +6099,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="10">
-        <f t="array" ref="B6">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),3,2)</f>
+        <f t="array" ref="B6">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),3,2)</f>
         <v>1.0580388112325225</v>
       </c>
     </row>
@@ -5689,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="10">
-        <f t="array" ref="C12">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),5,1)</f>
+        <f t="array" ref="C12">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),5,1)</f>
         <v>2433.3755591062659</v>
       </c>
       <c r="D12" s="10">
@@ -5697,7 +6163,7 @@
         <v>2433.3755591062659</v>
       </c>
       <c r="E12" s="10">
-        <f t="array" ref="E12">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),4,1)</f>
+        <f t="array" ref="E12">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),4,1)</f>
         <v>2173.7317253842489</v>
       </c>
       <c r="F12" s="25">
@@ -5710,11 +6176,11 @@
         <v>25</v>
       </c>
       <c r="B13" s="10">
-        <f t="array" ref="B13">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),4,2)</f>
+        <f t="array" ref="B13">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),4,2)</f>
         <v>112</v>
       </c>
       <c r="C13" s="10">
-        <f t="array" ref="C13">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),5,2)</f>
+        <f t="array" ref="C13">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),5,2)</f>
         <v>125.37796612032491</v>
       </c>
       <c r="D13" s="10">
@@ -5765,11 +6231,11 @@
         <v>30</v>
       </c>
       <c r="B17" s="25">
-        <f t="array" ref="B17">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),1,2)</f>
+        <f t="array" ref="B17">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),1,2)</f>
         <v>14.166721087821074</v>
       </c>
       <c r="C17" s="10">
-        <f t="array" ref="C17">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),2,2)</f>
+        <f t="array" ref="C17">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),2,2)</f>
         <v>0.16552245514351957</v>
       </c>
       <c r="D17" s="10">
@@ -5791,15 +6257,15 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="26" t="str">
-        <f ca="1">CONCATENATE("Column"," ",CELL("col",OFFSET(Sheet1!$G$12:$G$125,0,0)))</f>
+        <f ca="1">CONCATENATE("Column"," ",CELL("col",OFFSET(sf!$G$12:$G$125,0,0)))</f>
         <v>Column 7</v>
       </c>
       <c r="B18" s="25">
-        <f t="array" ref="B18">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),1,1)</f>
+        <f t="array" ref="B18">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),1,1)</f>
         <v>3.5067199670313496</v>
       </c>
       <c r="C18" s="10">
-        <f t="array" ref="C18">INDEX(LINEST(Sheet1!$H$12:$H$125,Sheet1!$G$12:$G$125,TRUE,TRUE),2,1)</f>
+        <f t="array" ref="C18">INDEX(LINEST(sf!$H$12:$H$125,sf!$G$12:$G$125,TRUE,TRUE),2,1)</f>
         <v>7.5213901022285673E-2</v>
       </c>
       <c r="D18" s="10">
@@ -5856,20 +6322,20 @@
         <v>1</v>
       </c>
       <c r="B21" s="10">
-        <f t="array" ref="B21:B134">Sheet1!$G$12:$G$125</f>
+        <f t="array" ref="B21:B134">sf!$G$12:$G$125</f>
         <v>-1.9246191348171766</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="10" t="e">
         <f t="shared" ref="C21:C52" si="0">SUMPRODUCT($B$17:$B$18,TRANSPOSE(A21:B21))</f>
-        <v>7.4176207388270798</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D21" s="10">
-        <f t="array" ref="D21:D134">Sheet1!$H$12:$H$125</f>
+        <f t="array" ref="D21:D134">sf!$H$12:$H$125</f>
         <v>6.9094345405018567</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="10" t="e">
         <f t="shared" ref="E21:E52" si="1">D21-C21</f>
-        <v>-0.50818619832522316</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" s="10" t="e">
         <f t="array" aca="1" ref="F21:F134" ca="1">_xll.LEVERAGE($A$21:$B$134)</f>
@@ -5877,15 +6343,15 @@
       </c>
       <c r="G21" s="29" t="e">
         <f t="shared" ref="G21:G52" ca="1" si="2">E21/SQRT($D$13*(1-F21))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H21" s="29" t="e">
         <f t="shared" ref="H21:H52" ca="1" si="3">E21/SQRT(($C$13-E21^2)/($B$13-1)*(1-F21))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I21" s="27" t="e">
         <f t="shared" ref="I21:I52" ca="1" si="4">TDIST(ABS(H21),$B$13-1,2)</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5896,16 +6362,16 @@
       <c r="B22" s="10">
         <v>-1.5147908739612861</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>8.8547736842241633</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D22" s="10">
         <v>7.9530019520489947</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.90177173217516859</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F22" s="10" t="e">
         <f ca="1"/>
@@ -5913,15 +6379,15 @@
       </c>
       <c r="G22" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H22" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5932,16 +6398,16 @@
       <c r="B23" s="10">
         <v>-1.7954718853219882</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>7.8705039773190366</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D23" s="10">
         <v>8.0860717564942881</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>0.21556777917525149</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F23" s="10" t="e">
         <f ca="1"/>
@@ -5949,15 +6415,15 @@
       </c>
       <c r="G23" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H23" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I23" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5968,16 +6434,16 @@
       <c r="B24" s="10">
         <v>-1.6007824338339096</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>8.5532253642226621</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D24" s="10">
         <v>8.2293244348733996</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.32390092934926251</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F24" s="10" t="e">
         <f ca="1"/>
@@ -5985,15 +6451,15 @@
       </c>
       <c r="G24" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H24" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I24" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6004,16 +6470,16 @@
       <c r="B25" s="10">
         <v>-1.3680782769117299</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>9.3692536777128659</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D25" s="10">
         <v>8.3686003713663233</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-1.0006533063465426</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F25" s="10" t="e">
         <f ca="1"/>
@@ -6021,15 +6487,15 @@
       </c>
       <c r="G25" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H25" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I25" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6040,16 +6506,16 @@
       <c r="B26" s="10">
         <v>-1.0104679576100695</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>10.623292924824456</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D26" s="10">
         <v>8.8880047410245222</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-1.7352881837999341</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F26" s="10" t="e">
         <f ca="1"/>
@@ -6057,15 +6523,15 @@
       </c>
       <c r="G26" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H26" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6076,16 +6542,16 @@
       <c r="B27" s="10">
         <v>-0.87432203042684131</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>11.100718566107879</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D27" s="10">
         <v>9.1514525223474266</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-1.9492660437604528</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F27" s="10" t="e">
         <f ca="1"/>
@@ -6093,15 +6559,15 @@
       </c>
       <c r="G27" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H27" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6112,16 +6578,16 @@
       <c r="B28" s="10">
         <v>-0.57072654215681062</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>12.165342926725026</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D28" s="10">
         <v>9.397406903550813</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-2.7679360231742134</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F28" s="10" t="e">
         <f ca="1"/>
@@ -6129,15 +6595,15 @@
       </c>
       <c r="G28" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H28" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6148,16 +6614,16 @@
       <c r="B29" s="10">
         <v>-0.39311022369948029</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>12.788193617129945</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D29" s="10">
         <v>11.752902534252346</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-1.035291082877599</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F29" s="10" t="e">
         <f ca="1"/>
@@ -6165,15 +6631,15 @@
       </c>
       <c r="G29" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H29" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6184,16 +6650,16 @@
       <c r="B30" s="10">
         <v>-0.78308346584705713</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>11.420666662283086</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D30" s="10">
         <v>12.429320191436759</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>1.0086535291536727</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F30" s="10" t="e">
         <f ca="1"/>
@@ -6201,15 +6667,15 @@
       </c>
       <c r="G30" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H30" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6220,16 +6686,16 @@
       <c r="B31" s="10">
         <v>-0.3463082400117875</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>12.952315067824253</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D31" s="10">
         <v>12.356025957291399</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.59628911053285449</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F31" s="10" t="e">
         <f ca="1"/>
@@ -6237,15 +6703,15 @@
       </c>
       <c r="G31" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H31" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6256,16 +6722,16 @@
       <c r="B32" s="10">
         <v>-0.15340203717650019</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>13.628783101070955</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D32" s="10">
         <v>12.4251720302153</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-1.2036110708556542</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F32" s="10" t="e">
         <f ca="1"/>
@@ -6273,15 +6739,15 @@
       </c>
       <c r="G32" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H32" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6292,16 +6758,16 @@
       <c r="B33" s="10">
         <v>-0.12189452971136495</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>13.739271106610333</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D33" s="10">
         <v>13.646469227307854</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-9.2801879302479406E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F33" s="10" t="e">
         <f ca="1"/>
@@ -6309,15 +6775,15 @@
       </c>
       <c r="G33" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H33" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6328,16 +6794,16 @@
       <c r="B34" s="10">
         <v>-3.4301372491242918E-2</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>14.046435780009453</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D34" s="10">
         <v>13.810910493874163</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.23552528613529056</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F34" s="10" t="e">
         <f ca="1"/>
@@ -6345,15 +6811,15 @@
       </c>
       <c r="G34" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H34" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6364,16 +6830,16 @@
       <c r="B35" s="10">
         <v>0.10070454363659798</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>14.519863721762311</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D35" s="10">
         <v>14.225057324758685</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.29480639700362588</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F35" s="10" t="e">
         <f ca="1"/>
@@ -6381,15 +6847,15 @@
       </c>
       <c r="G35" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H35" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6400,16 +6866,16 @@
       <c r="B36" s="10">
         <v>0.25641453543237153</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>15.065895059058839</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D36" s="10">
         <v>14.825226057005223</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.24066900205361641</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F36" s="10" t="e">
         <f ca="1"/>
@@ -6417,15 +6883,15 @@
       </c>
       <c r="G36" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H36" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I36" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6436,16 +6902,16 @@
       <c r="B37" s="10">
         <v>0.24335943377550315</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>15.020114473407075</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D37" s="10">
         <v>15.379710071237364</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>0.35959559783028894</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F37" s="10" t="e">
         <f ca="1"/>
@@ -6453,15 +6919,15 @@
       </c>
       <c r="G37" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H37" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6472,16 +6938,16 @@
       <c r="B38" s="10">
         <v>0.43367974302665557</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>15.687514501989671</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D38" s="10">
         <v>15.325234648780398</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.36227985320927303</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F38" s="10" t="e">
         <f ca="1"/>
@@ -6489,15 +6955,15 @@
       </c>
       <c r="G38" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H38" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6508,16 +6974,16 @@
       <c r="B39" s="10">
         <v>0.44904012300503932</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>15.741379053161058</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D39" s="10">
         <v>16.869372579016453</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>1.1279935258553948</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F39" s="10" t="e">
         <f ca="1"/>
@@ -6525,15 +6991,15 @@
       </c>
       <c r="G39" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H39" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6544,16 +7010,16 @@
       <c r="B40" s="10">
         <v>0.21983393058376668</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>14.937617121630153</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D40" s="10">
         <v>17.834076329916201</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>2.8964592082860481</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F40" s="10" t="e">
         <f ca="1"/>
@@ -6561,15 +7027,15 @@
       </c>
       <c r="G40" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H40" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I40" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6580,16 +7046,16 @@
       <c r="B41" s="10">
         <v>0.35895016695396187</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>15.425458805447768</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D41" s="10">
         <v>18.491109384229841</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>3.0656505787820727</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F41" s="10" t="e">
         <f ca="1"/>
@@ -6597,15 +7063,15 @@
       </c>
       <c r="G41" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H41" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I41" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6616,16 +7082,16 @@
       <c r="B42" s="10">
         <v>0.65697296849061004</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>16.470541314226953</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D42" s="10">
         <v>18.319453341867725</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>1.8489120276407718</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F42" s="10" t="e">
         <f ca="1"/>
@@ -6633,15 +7099,15 @@
       </c>
       <c r="G42" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H42" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I42" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6652,16 +7118,16 @@
       <c r="B43" s="10">
         <v>0.81590633861171324</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.027876136658211</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D43" s="10">
         <v>17.982696576361509</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>0.95482043970329755</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F43" s="10" t="e">
         <f ca="1"/>
@@ -6669,15 +7135,15 @@
       </c>
       <c r="G43" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H43" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I43" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6688,16 +7154,16 @@
       <c r="B44" s="10">
         <v>0.90275230201279788</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.332420610572868</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D44" s="10">
         <v>17.491143601994157</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>0.15872299142128909</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F44" s="10" t="e">
         <f ca="1"/>
@@ -6705,15 +7171,15 @@
       </c>
       <c r="G44" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H44" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I44" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6724,16 +7190,16 @@
       <c r="B45" s="10">
         <v>1.0392862439216179</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.811206910842024</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D45" s="10">
         <v>17.059375209108214</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.75183170173380987</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F45" s="10" t="e">
         <f ca="1"/>
@@ -6741,15 +7207,15 @@
       </c>
       <c r="G45" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H45" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I45" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6760,16 +7226,16 @@
       <c r="B46" s="10">
         <v>0.96985402863081971</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.567727575126565</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D46" s="10">
         <v>16.950960227249062</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.6167673478775022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F46" s="10" t="e">
         <f ca="1"/>
@@ -6777,15 +7243,15 @@
       </c>
       <c r="G46" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H46" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I46" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6796,16 +7262,16 @@
       <c r="B47" s="10">
         <v>0.89814082750076274</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.316249460824057</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D47" s="10">
         <v>17.503614486435922</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>0.18736502561186441</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F47" s="10" t="e">
         <f ca="1"/>
@@ -6813,15 +7279,15 @@
       </c>
       <c r="G47" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H47" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I47" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -6832,16 +7298,16 @@
       <c r="B48" s="10">
         <v>0.89743074615514262</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.313759404391156</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D48" s="10">
         <v>17.656045080456078</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>0.34228567606492177</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F48" s="10" t="e">
         <f ca="1"/>
@@ -6849,15 +7315,15 @@
       </c>
       <c r="G48" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H48" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I48" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6868,16 +7334,16 @@
       <c r="B49" s="10">
         <v>1.0163905918055731</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.730918270408488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D49" s="10">
         <v>17.539710702133839</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.19120756827464902</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F49" s="10" t="e">
         <f ca="1"/>
@@ -6885,15 +7351,15 @@
       </c>
       <c r="G49" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H49" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I49" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6904,16 +7370,16 @@
       <c r="B50" s="10">
         <v>0.97648270328006903</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.59097248087404</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D50" s="10">
         <v>17.577094088517057</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-1.3878392356982516E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F50" s="10" t="e">
         <f ca="1"/>
@@ -6921,15 +7387,15 @@
       </c>
       <c r="G50" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H50" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I50" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6940,16 +7406,16 @@
       <c r="B51" s="10">
         <v>1.1108686218233945</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>18.062226264717768</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="10">
         <v>17.611078395728981</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.45114786898878734</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F51" s="10" t="e">
         <f ca="1"/>
@@ -6957,15 +7423,15 @@
       </c>
       <c r="G51" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H51" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I51" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6976,16 +7442,16 @@
       <c r="B52" s="10">
         <v>1.0906196511165152</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>17.991218794828121</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D52" s="10">
         <v>17.672867556218975</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>-0.31835123860914649</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F52" s="10" t="e">
         <f ca="1"/>
@@ -6993,15 +7459,15 @@
       </c>
       <c r="G52" s="29" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H52" s="29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I52" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7012,16 +7478,16 @@
       <c r="B53" s="10">
         <v>1.0911917088657863</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="10" t="e">
         <f t="shared" ref="C53:C84" si="5">SUMPRODUCT($B$17:$B$18,TRANSPOSE(A53:B53))</f>
-        <v>17.993224841159787</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D53" s="10">
         <v>17.951751224843747</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="10" t="e">
         <f t="shared" ref="E53:E84" si="6">D53-C53</f>
-        <v>-4.1473616316039852E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F53" s="10" t="e">
         <f ca="1"/>
@@ -7029,15 +7495,15 @@
       </c>
       <c r="G53" s="29" t="e">
         <f t="shared" ref="G53:G84" ca="1" si="7">E53/SQRT($D$13*(1-F53))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H53" s="29" t="e">
         <f t="shared" ref="H53:H84" ca="1" si="8">E53/SQRT(($C$13-E53^2)/($B$13-1)*(1-F53))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I53" s="27" t="e">
         <f t="shared" ref="I53:I84" ca="1" si="9">TDIST(ABS(H53),$B$13-1,2)</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7048,16 +7514,16 @@
       <c r="B54" s="10">
         <v>1.0676420105152584</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>17.910642643736423</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D54" s="10">
         <v>18.320853690415543</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.41021104667911956</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F54" s="10" t="e">
         <f ca="1"/>
@@ -7065,15 +7531,15 @@
       </c>
       <c r="G54" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H54" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I54" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7084,16 +7550,16 @@
       <c r="B55" s="10">
         <v>1.0739255117283111</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>17.932677122903101</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D55" s="10">
         <v>18.483890481945391</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.55121335904228985</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F55" s="10" t="e">
         <f ca="1"/>
@@ -7101,15 +7567,15 @@
       </c>
       <c r="G55" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H55" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I55" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7120,16 +7586,16 @@
       <c r="B56" s="10">
         <v>1.1404419400458612</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>18.165931610219864</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D56" s="10">
         <v>18.648350132955073</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.48241852273520891</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F56" s="10" t="e">
         <f ca="1"/>
@@ -7137,15 +7603,15 @@
       </c>
       <c r="G56" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H56" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I56" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7156,16 +7622,16 @@
       <c r="B57" s="10">
         <v>1.1854372775645354</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>18.323717658719914</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D57" s="10">
         <v>18.55779855020036</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.23408089148044553</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F57" s="10" t="e">
         <f ca="1"/>
@@ -7173,15 +7639,15 @@
       </c>
       <c r="G57" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H57" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I57" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7192,16 +7658,16 @@
       <c r="B58" s="10">
         <v>1.2497547191092129</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>18.549260915213004</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D58" s="10">
         <v>18.706203555627582</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.15694264041457728</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F58" s="10" t="e">
         <f ca="1"/>
@@ -7209,15 +7675,15 @@
       </c>
       <c r="G58" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H58" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I58" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7228,16 +7694,16 @@
       <c r="B59" s="10">
         <v>2.0169527684665534</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.239609633561894</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D59" s="10">
         <v>18.787845067243396</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>-2.4517645663184986</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F59" s="10" t="e">
         <f ca="1"/>
@@ -7245,15 +7711,15 @@
       </c>
       <c r="G59" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H59" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I59" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7264,16 +7730,16 @@
       <c r="B60" s="10">
         <v>1.9746002139862204</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.091091085110929</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D60" s="10">
         <v>19.253706995897165</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>-1.8373840892137636</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F60" s="10" t="e">
         <f ca="1"/>
@@ -7281,15 +7747,15 @@
       </c>
       <c r="G60" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H60" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I60" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7300,16 +7766,16 @@
       <c r="B61" s="10">
         <v>1.9390705823113927</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.966498616295539</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D61" s="10">
         <v>19.711251328757623</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>-1.2552472875379159</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F61" s="10" t="e">
         <f ca="1"/>
@@ -7317,15 +7783,15 @@
       </c>
       <c r="G61" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H61" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7336,16 +7802,16 @@
       <c r="B62" s="10">
         <v>1.8137846564795936</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.527155958593163</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D62" s="10">
         <v>20.739149874863489</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.21199391627032682</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F62" s="10" t="e">
         <f ca="1"/>
@@ -7353,15 +7819,15 @@
       </c>
       <c r="G62" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H62" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I62" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7372,16 +7838,16 @@
       <c r="B63" s="10">
         <v>1.9002507744365853</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.830368420904634</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D63" s="10">
         <v>21.158440677766386</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.32807225686175201</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F63" s="10" t="e">
         <f ca="1"/>
@@ -7389,15 +7855,15 @@
       </c>
       <c r="G63" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H63" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I63" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7408,16 +7874,16 @@
       <c r="B64" s="10">
         <v>1.9106234386585395</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.86674244964307</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D64" s="10">
         <v>21.081188248653579</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.21444579901050886</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F64" s="10" t="e">
         <f ca="1"/>
@@ -7425,15 +7891,15 @@
       </c>
       <c r="G64" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H64" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I64" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7444,16 +7910,16 @@
       <c r="B65" s="10">
         <v>1.8775117511364481</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.750629033867249</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D65" s="10">
         <v>20.815389627418078</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>6.4760593550829526E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F65" s="10" t="e">
         <f ca="1"/>
@@ -7461,15 +7927,15 @@
       </c>
       <c r="G65" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H65" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I65" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7480,16 +7946,16 @@
       <c r="B66" s="10">
         <v>1.8604782359811172</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.690897266163319</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D66" s="10">
         <v>20.911118395451275</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.22022112928795678</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F66" s="10" t="e">
         <f ca="1"/>
@@ -7497,15 +7963,15 @@
       </c>
       <c r="G66" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H66" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I66" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7516,16 +7982,16 @@
       <c r="B67" s="10">
         <v>1.7890408169192451</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.440386242345866</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D67" s="10">
         <v>21.158661886781495</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.71827564443562864</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F67" s="10" t="e">
         <f ca="1"/>
@@ -7533,15 +7999,15 @@
       </c>
       <c r="G67" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H67" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I67" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7552,16 +8018,16 @@
       <c r="B68" s="10">
         <v>1.8395119566088722</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.617374395654313</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D68" s="10">
         <v>21.116897785224189</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.49952338956987674</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F68" s="10" t="e">
         <f ca="1"/>
@@ -7569,15 +8035,15 @@
       </c>
       <c r="G68" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H68" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I68" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7588,16 +8054,16 @@
       <c r="B69" s="10">
         <v>1.7558547555347843</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.32401201826185</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D69" s="10">
         <v>21.601605791741015</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.2775937734791647</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F69" s="10" t="e">
         <f ca="1"/>
@@ -7605,15 +8071,15 @@
       </c>
       <c r="G69" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H69" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I69" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -7624,16 +8090,16 @@
       <c r="B70" s="10">
         <v>1.9483812274777272</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.99914844160627</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D70" s="10">
         <v>23.327122343390329</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>2.3279739017840591</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F70" s="10" t="e">
         <f ca="1"/>
@@ -7641,15 +8107,15 @@
       </c>
       <c r="G70" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H70" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I70" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7660,16 +8126,16 @@
       <c r="B71" s="10">
         <v>1.8798325604310853</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.758767462160428</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D71" s="10">
         <v>22.912064639148031</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>2.1532971769876035</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F71" s="10" t="e">
         <f ca="1"/>
@@ -7677,15 +8143,15 @@
       </c>
       <c r="G71" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H71" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I71" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -7696,16 +8162,16 @@
       <c r="B72" s="10">
         <v>1.9193357414139378</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>20.897294055674248</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D72" s="10">
         <v>23.01652593702276</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>2.1192318813485116</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F72" s="10" t="e">
         <f ca="1"/>
@@ -7713,15 +8179,15 @@
       </c>
       <c r="G72" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H72" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I72" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -7732,16 +8198,16 @@
       <c r="B73" s="10">
         <v>2.0414878753408123</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.325647382731105</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D73" s="10">
         <v>22.698193873806218</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.3725464910751128</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F73" s="10" t="e">
         <f ca="1"/>
@@ -7749,15 +8215,15 @@
       </c>
       <c r="G73" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H73" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I73" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -7768,16 +8234,16 @@
       <c r="B74" s="10">
         <v>2.0101063467917375</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.215601149972102</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D74" s="10">
         <v>22.473555389124122</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.2579542391520206</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F74" s="10" t="e">
         <f ca="1"/>
@@ -7785,15 +8251,15 @@
       </c>
       <c r="G74" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H74" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I74" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7804,16 +8270,16 @@
       <c r="B75" s="10">
         <v>2.0375753508896377</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.311927255116675</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D75" s="10">
         <v>22.465828886369387</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.1539016312527117</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F75" s="10" t="e">
         <f ca="1"/>
@@ -7821,15 +8287,15 @@
       </c>
       <c r="G75" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H75" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I75" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -7840,16 +8306,16 @@
       <c r="B76" s="10">
         <v>2.0465911477957568</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.343543130146063</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D76" s="10">
         <v>22.79910481906915</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.4555616889230869</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F76" s="10" t="e">
         <f ca="1"/>
@@ -7857,15 +8323,15 @@
       </c>
       <c r="G76" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H76" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I76" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -7876,16 +8342,16 @@
       <c r="B77" s="10">
         <v>2.041351374114825</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.325168711156415</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D77" s="10">
         <v>22.808292999958358</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.4831242888019425</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F77" s="10" t="e">
         <f ca="1"/>
@@ -7893,15 +8359,15 @@
       </c>
       <c r="G77" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H77" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I77" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7912,16 +8378,16 @@
       <c r="B78" s="10">
         <v>2.130920830674079</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.639263712908896</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D78" s="10">
         <v>22.760969183272159</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.1217054703632634</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F78" s="10" t="e">
         <f ca="1"/>
@@ -7929,15 +8395,15 @@
       </c>
       <c r="G78" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H78" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I78" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7948,16 +8414,16 @@
       <c r="B79" s="10">
         <v>2.0605934518411853</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.392645289326609</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D79" s="10">
         <v>22.566959666697706</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>1.1743143773710969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F79" s="10" t="e">
         <f ca="1"/>
@@ -7965,15 +8431,15 @@
       </c>
       <c r="G79" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H79" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I79" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7984,16 +8450,16 @@
       <c r="B80" s="10">
         <v>2.1500579596580596</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.706372265228676</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D80" s="10">
         <v>22.353482455989585</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.64711019076090892</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F80" s="10" t="e">
         <f ca="1"/>
@@ -8001,15 +8467,15 @@
       </c>
       <c r="G80" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H80" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I80" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8020,16 +8486,16 @@
       <c r="B81" s="10">
         <v>2.1741736393012885</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.790939200552117</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D81" s="10">
         <v>22.192675302246116</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.40173610169399865</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F81" s="10" t="e">
         <f ca="1"/>
@@ -8037,15 +8503,15 @@
       </c>
       <c r="G81" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H81" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I81" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8056,16 +8522,16 @@
       <c r="B82" s="10">
         <v>2.2377190116844603</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>22.013775026700628</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D82" s="10">
         <v>22.352690808491626</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.33891578179099824</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F82" s="10" t="e">
         <f ca="1"/>
@@ -8073,15 +8539,15 @@
       </c>
       <c r="G82" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H82" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I82" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8092,16 +8558,16 @@
       <c r="B83" s="10">
         <v>2.2299829241056117</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.986646733921177</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D83" s="10">
         <v>22.118437273731661</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0.13179053981048483</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F83" s="10" t="e">
         <f ca="1"/>
@@ -8109,15 +8575,15 @@
       </c>
       <c r="G83" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H83" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I83" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8128,16 +8594,16 @@
       <c r="B84" s="10">
         <v>2.2315940572591386</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>21.992296526720196</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D84" s="10">
         <v>21.87648213436756</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>-0.11581439235263602</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F84" s="10" t="e">
         <f ca="1"/>
@@ -8145,15 +8611,15 @@
       </c>
       <c r="G84" s="29" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H84" s="29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I84" s="27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8164,16 +8630,16 @@
       <c r="B85" s="10">
         <v>2.3118452376103935</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="10" t="e">
         <f t="shared" ref="C85:C116" si="10">SUMPRODUCT($B$17:$B$18,TRANSPOSE(A85:B85))</f>
-        <v>22.273714943235774</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D85" s="10">
         <v>21.980636088594121</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="10" t="e">
         <f t="shared" ref="E85:E116" si="11">D85-C85</f>
-        <v>-0.29307885464165295</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F85" s="10" t="e">
         <f ca="1"/>
@@ -8181,15 +8647,15 @@
       </c>
       <c r="G85" s="29" t="e">
         <f t="shared" ref="G85:G116" ca="1" si="12">E85/SQRT($D$13*(1-F85))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H85" s="29" t="e">
         <f t="shared" ref="H85:H116" ca="1" si="13">E85/SQRT(($C$13-E85^2)/($B$13-1)*(1-F85))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I85" s="27" t="e">
         <f t="shared" ref="I85:I116" ca="1" si="14">TDIST(ABS(H85),$B$13-1,2)</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8200,16 +8666,16 @@
       <c r="B86" s="10">
         <v>2.2443190047591579</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.036919354197941</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D86" s="10">
         <v>21.948210358445976</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-8.8708995751964892E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F86" s="10" t="e">
         <f ca="1"/>
@@ -8217,15 +8683,15 @@
       </c>
       <c r="G86" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H86" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I86" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8236,16 +8702,16 @@
       <c r="B87" s="10">
         <v>2.3206008000062299</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.304418248711844</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D87" s="10">
         <v>21.923177601300672</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.38124064741117181</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F87" s="10" t="e">
         <f ca="1"/>
@@ -8253,15 +8719,15 @@
       </c>
       <c r="G87" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H87" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I87" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8272,16 +8738,16 @@
       <c r="B88" s="10">
         <v>2.2803425374049238</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.163243795409851</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D88" s="10">
         <v>21.917435748665877</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.24580804674397427</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F88" s="10" t="e">
         <f ca="1"/>
@@ -8289,15 +8755,15 @@
       </c>
       <c r="G88" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H88" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I88" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -8308,16 +8774,16 @@
       <c r="B89" s="10">
         <v>2.3075911784602194</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.258797149072926</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D89" s="10">
         <v>22.048947931294638</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.20984921777828802</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F89" s="10" t="e">
         <f ca="1"/>
@@ -8325,15 +8791,15 @@
       </c>
       <c r="G89" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H89" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I89" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -8344,16 +8810,16 @@
       <c r="B90" s="10">
         <v>2.27100014684726</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.130482647901488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D90" s="10">
         <v>22.138257508699422</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>7.7748607979337692E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F90" s="10" t="e">
         <f ca="1"/>
@@ -8361,15 +8827,15 @@
       </c>
       <c r="G90" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H90" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I90" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -8380,16 +8846,16 @@
       <c r="B91" s="10">
         <v>2.2769491629319125</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.151344181389728</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D91" s="10">
         <v>21.936614240117521</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.21472994127220701</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F91" s="10" t="e">
         <f ca="1"/>
@@ -8397,15 +8863,15 @@
       </c>
       <c r="G91" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H91" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I91" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -8416,16 +8882,16 @@
       <c r="B92" s="10">
         <v>2.3132666348312001</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.278699385251059</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D92" s="10">
         <v>21.973987801008544</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.30471158424251499</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F92" s="10" t="e">
         <f ca="1"/>
@@ -8433,15 +8899,15 @@
       </c>
       <c r="G92" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H92" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I92" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -8452,16 +8918,16 @@
       <c r="B93" s="10">
         <v>2.3013196728044867</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.236804734966618</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D93" s="10">
         <v>22.308922913495397</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>7.2118178528778998E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F93" s="10" t="e">
         <f ca="1"/>
@@ -8469,15 +8935,15 @@
       </c>
       <c r="G93" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H93" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I93" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -8488,16 +8954,16 @@
       <c r="B94" s="10">
         <v>2.2902994210200562</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.198159797992446</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D94" s="10">
         <v>22.437972592631549</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.23981279463910354</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F94" s="10" t="e">
         <f ca="1"/>
@@ -8505,15 +8971,15 @@
       </c>
       <c r="G94" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H94" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I94" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -8524,16 +8990,16 @@
       <c r="B95" s="10">
         <v>2.2133933290882442</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>21.928471669828809</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D95" s="10">
         <v>22.588356659159004</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.65988498933019457</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F95" s="10" t="e">
         <f ca="1"/>
@@ -8541,15 +9007,15 @@
       </c>
       <c r="G95" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H95" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I95" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -8560,16 +9026,16 @@
       <c r="B96" s="10">
         <v>2.2619442911070222</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.098726297758638</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D96" s="10">
         <v>22.463755134326604</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.3650288365679657</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F96" s="10" t="e">
         <f ca="1"/>
@@ -8577,15 +9043,15 @@
       </c>
       <c r="G96" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H96" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I96" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -8596,16 +9062,16 @@
       <c r="B97" s="10">
         <v>2.3374968621133929</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.363668007067233</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D97" s="10">
         <v>22.619286833165408</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.25561882609817488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F97" s="10" t="e">
         <f ca="1"/>
@@ -8613,15 +9079,15 @@
       </c>
       <c r="G97" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H97" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I97" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8632,16 +9098,16 @@
       <c r="B98" s="10">
         <v>2.3398165513880516</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.371802507763988</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D98" s="10">
         <v>22.57979517554897</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.20799266778498193</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F98" s="10" t="e">
         <f ca="1"/>
@@ -8649,15 +9115,15 @@
       </c>
       <c r="G98" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H98" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I98" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -8668,16 +9134,16 @@
       <c r="B99" s="10">
         <v>2.3741509640530674</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.492203678212693</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D99" s="10">
         <v>22.706930769435647</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.21472709122295441</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F99" s="10" t="e">
         <f ca="1"/>
@@ -8685,15 +9151,15 @@
       </c>
       <c r="G99" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H99" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I99" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8704,16 +9170,16 @@
       <c r="B100" s="10">
         <v>2.3464086389544683</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.394919112857561</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D100" s="10">
         <v>22.838514176043052</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.4435950631854908</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F100" s="10" t="e">
         <f ca="1"/>
@@ -8721,15 +9187,15 @@
       </c>
       <c r="G100" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H100" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I100" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -8740,16 +9206,16 @@
       <c r="B101" s="10">
         <v>2.3884785129646007</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>22.542446380059385</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D101" s="10">
         <v>23.079644368735732</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.53719798867634694</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F101" s="10" t="e">
         <f ca="1"/>
@@ -8757,15 +9223,15 @@
       </c>
       <c r="G101" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H101" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I101" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -8776,16 +9242,16 @@
       <c r="B102" s="10">
         <v>3.1118950587871321</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>25.079265625776106</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D102" s="10">
         <v>23.016878795447191</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-2.062386830328915</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F102" s="10" t="e">
         <f ca="1"/>
@@ -8793,15 +9259,15 @@
       </c>
       <c r="G102" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H102" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I102" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -8812,16 +9278,16 @@
       <c r="B103" s="10">
         <v>3.0525639508637044</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.87120804495493</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D103" s="10">
         <v>22.930643617845067</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.9405644271098623</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F103" s="10" t="e">
         <f ca="1"/>
@@ -8829,15 +9295,15 @@
       </c>
       <c r="G103" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H103" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I103" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8848,16 +9314,16 @@
       <c r="B104" s="10">
         <v>3.0786771622637694</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.962779764774851</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D104" s="10">
         <v>22.993414417071154</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.9693653477036968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F104" s="10" t="e">
         <f ca="1"/>
@@ -8865,15 +9331,15 @@
       </c>
       <c r="G104" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H104" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I104" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -8884,16 +9350,16 @@
       <c r="B105" s="10">
         <v>3.0831648285855002</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.978516753870636</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D105" s="10">
         <v>23.139096346155686</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.8394204077149503</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F105" s="10" t="e">
         <f ca="1"/>
@@ -8901,15 +9367,15 @@
       </c>
       <c r="G105" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H105" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I105" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8920,16 +9386,16 @@
       <c r="B106" s="10">
         <v>3.0938209558366889</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>25.015884808073608</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D106" s="10">
         <v>23.244133204371913</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.7717516037016949</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F106" s="10" t="e">
         <f ca="1"/>
@@ -8937,15 +9403,15 @@
       </c>
       <c r="G106" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H106" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I106" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -8956,16 +9422,16 @@
       <c r="B107" s="10">
         <v>3.0586943983131025</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.89270580743257</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D107" s="10">
         <v>23.467581697019181</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.4251241104133889</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F107" s="10" t="e">
         <f ca="1"/>
@@ -8973,15 +9439,15 @@
       </c>
       <c r="G107" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H107" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I107" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -8992,16 +9458,16 @@
       <c r="B108" s="10">
         <v>3.0167769173315757</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.745712939906994</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D108" s="10">
         <v>23.467254845996671</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.2784580939103236</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F108" s="10" t="e">
         <f ca="1"/>
@@ -9009,15 +9475,15 @@
       </c>
       <c r="G108" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H108" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I108" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9028,16 +9494,16 @@
       <c r="B109" s="10">
         <v>3.1644349428131417</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>25.263508286155627</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D109" s="10">
         <v>23.682004214997313</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.5815040711583137</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F109" s="10" t="e">
         <f ca="1"/>
@@ -9045,15 +9511,15 @@
       </c>
       <c r="G109" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H109" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I109" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -9064,16 +9530,16 @@
       <c r="B110" s="10">
         <v>3.0830546179481759</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.978130276028153</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D110" s="10">
         <v>23.578441074309413</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.3996892017187399</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F110" s="10" t="e">
         <f ca="1"/>
@@ -9081,15 +9547,15 @@
       </c>
       <c r="G110" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H110" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I110" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -9100,16 +9566,16 @@
       <c r="B111" s="10">
         <v>3.1296505195745272</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>25.141529054643108</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D111" s="10">
         <v>23.814297011832036</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-1.3272320428110724</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F111" s="10" t="e">
         <f ca="1"/>
@@ -9117,15 +9583,15 @@
       </c>
       <c r="G111" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H111" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I111" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -9136,16 +9602,16 @@
       <c r="B112" s="10">
         <v>3.0441011513868701</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.841531377052533</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D112" s="10">
         <v>24.349946436766487</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.49158494028604593</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F112" s="10" t="e">
         <f ca="1"/>
@@ -9153,15 +9619,15 @@
       </c>
       <c r="G112" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H112" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I112" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9172,16 +9638,16 @@
       <c r="B113" s="10">
         <v>3.1298421119457305</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>25.142200915436735</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D113" s="10">
         <v>24.42066622705288</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.72153468838385493</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F113" s="10" t="e">
         <f ca="1"/>
@@ -9189,15 +9655,15 @@
       </c>
       <c r="G113" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H113" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I113" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -9208,16 +9674,16 @@
       <c r="B114" s="10">
         <v>3.0447173391039417</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.843692174823428</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D114" s="10">
         <v>24.57410436746337</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.2695878073600575</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F114" s="10" t="e">
         <f ca="1"/>
@@ -9225,15 +9691,15 @@
       </c>
       <c r="G114" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H114" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I114" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -9244,16 +9710,16 @@
       <c r="B115" s="10">
         <v>3.1520836944890189</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>25.220195917039661</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D115" s="10">
         <v>25.083140661954666</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>-0.13705525508499505</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F115" s="10" t="e">
         <f ca="1"/>
@@ -9261,15 +9727,15 @@
       </c>
       <c r="G115" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H115" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I115" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9280,16 +9746,16 @@
       <c r="B116" s="10">
         <v>3.0585990840524722</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="10" t="e">
         <f t="shared" si="10"/>
-        <v>24.892371567011676</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D116" s="10">
         <v>24.99737161702776</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="10" t="e">
         <f t="shared" si="11"/>
-        <v>0.10500005001608415</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F116" s="10" t="e">
         <f ca="1"/>
@@ -9297,15 +9763,15 @@
       </c>
       <c r="G116" s="29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H116" s="29" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I116" s="27" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -9316,32 +9782,32 @@
       <c r="B117" s="10">
         <v>3.0701544321482332</v>
       </c>
-      <c r="C117" s="10">
-        <f t="shared" ref="C117:C148" si="15">SUMPRODUCT($B$17:$B$18,TRANSPOSE(A117:B117))</f>
-        <v>24.932892936905077</v>
+      <c r="C117" s="10" t="e">
+        <f t="shared" ref="C117:C134" si="15">SUMPRODUCT($B$17:$B$18,TRANSPOSE(A117:B117))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D117" s="10">
         <v>25.398963422347666</v>
       </c>
-      <c r="E117" s="10">
-        <f t="shared" ref="E117:E148" si="16">D117-C117</f>
-        <v>0.46607048544258944</v>
+      <c r="E117" s="10" t="e">
+        <f t="shared" ref="E117:E134" si="16">D117-C117</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F117" s="10" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
       <c r="G117" s="29" t="e">
-        <f t="shared" ref="G117:G148" ca="1" si="17">E117/SQRT($D$13*(1-F117))</f>
-        <v>#NAME?</v>
+        <f t="shared" ref="G117:G134" ca="1" si="17">E117/SQRT($D$13*(1-F117))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H117" s="29" t="e">
         <f t="shared" ref="H117:H134" ca="1" si="18">E117/SQRT(($C$13-E117^2)/($B$13-1)*(1-F117))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I117" s="27" t="e">
-        <f t="shared" ref="I117:I148" ca="1" si="19">TDIST(ABS(H117),$B$13-1,2)</f>
-        <v>#NAME?</v>
+        <f t="shared" ref="I117:I134" ca="1" si="19">TDIST(ABS(H117),$B$13-1,2)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -9352,16 +9818,16 @@
       <c r="B118" s="10">
         <v>3.1706957854630078</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.285463308086349</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D118" s="10">
         <v>25.836308772355125</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.55084546426877523</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F118" s="10" t="e">
         <f ca="1"/>
@@ -9369,15 +9835,15 @@
       </c>
       <c r="G118" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H118" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I118" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -9388,16 +9854,16 @@
       <c r="B119" s="10">
         <v>3.0346443124400722</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>24.808368891092798</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D119" s="10">
         <v>26.171916836587517</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>1.3635479454947195</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F119" s="10" t="e">
         <f ca="1"/>
@@ -9405,15 +9871,15 @@
       </c>
       <c r="G119" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H119" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I119" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -9424,16 +9890,16 @@
       <c r="B120" s="10">
         <v>3.033487255054415</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>24.804311414855512</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D120" s="10">
         <v>25.858891249102257</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>1.054579834246745</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F120" s="10" t="e">
         <f ca="1"/>
@@ -9441,15 +9907,15 @@
       </c>
       <c r="G120" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H120" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I120" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -9460,16 +9926,16 @@
       <c r="B121" s="10">
         <v>3.1833352166849398</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.329786253924219</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D121" s="10">
         <v>25.882517728042387</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.55273147411816836</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F121" s="10" t="e">
         <f ca="1"/>
@@ -9477,15 +9943,15 @@
       </c>
       <c r="G121" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H121" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I121" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -9496,16 +9962,16 @@
       <c r="B122" s="10">
         <v>3.1233754372153952</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.11952409803957</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D122" s="10">
         <v>25.488705794872654</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.36918169683308477</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F122" s="10" t="e">
         <f ca="1"/>
@@ -9513,15 +9979,15 @@
       </c>
       <c r="G122" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H122" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I122" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -9532,16 +9998,16 @@
       <c r="B123" s="10">
         <v>3.1367501467140855</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.166425458891872</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D123" s="10">
         <v>25.780396423292395</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.61397096440052223</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F123" s="10" t="e">
         <f ca="1"/>
@@ -9549,15 +10015,15 @@
       </c>
       <c r="G123" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H123" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I123" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -9568,16 +10034,16 @@
       <c r="B124" s="10">
         <v>3.1174171086803182</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.098629908395484</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D124" s="10">
         <v>25.572893138915674</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.47426323052019015</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F124" s="10" t="e">
         <f ca="1"/>
@@ -9585,15 +10051,15 @@
       </c>
       <c r="G124" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H124" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I124" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9604,16 +10070,16 @@
       <c r="B125" s="10">
         <v>3.1462163015335887</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.199620613008435</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D125" s="10">
         <v>25.416995151725626</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.21737453871719126</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F125" s="10" t="e">
         <f ca="1"/>
@@ -9621,15 +10087,15 @@
       </c>
       <c r="G125" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H125" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I125" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -9640,16 +10106,16 @@
       <c r="B126" s="10">
         <v>3.1398441092941303</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.177275119248563</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D126" s="10">
         <v>25.611464653400283</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.43418953415172012</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F126" s="10" t="e">
         <f ca="1"/>
@@ -9657,15 +10123,15 @@
       </c>
       <c r="G126" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H126" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I126" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -9676,16 +10142,16 @@
       <c r="B127" s="10">
         <v>3.11021099182592</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.073360074537405</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D127" s="10">
         <v>25.518284134539712</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>0.44492406000230744</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F127" s="10" t="e">
         <f ca="1"/>
@@ -9693,15 +10159,15 @@
       </c>
       <c r="G127" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H127" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I127" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -9712,16 +10178,16 @@
       <c r="B128" s="10">
         <v>3.1972473633868939</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.378572256548232</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D128" s="10">
         <v>25.461260113761323</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>8.2687857213091576E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F128" s="10" t="e">
         <f ca="1"/>
@@ -9729,15 +10195,15 @@
       </c>
       <c r="G128" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H128" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I128" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -9748,16 +10214,16 @@
       <c r="B129" s="10">
         <v>3.2097408272176593</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.42238333562096</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D129" s="10">
         <v>25.417778251710676</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>-4.6050839102846908E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F129" s="10" t="e">
         <f ca="1"/>
@@ -9765,15 +10231,15 @@
       </c>
       <c r="G129" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H129" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I129" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -9784,16 +10250,16 @@
       <c r="B130" s="10">
         <v>3.3366649854938637</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.867470815746774</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D130" s="10">
         <v>24.975376075764245</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E130" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>-0.89209473998252875</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F130" s="10" t="e">
         <f ca="1"/>
@@ -9801,15 +10267,15 @@
       </c>
       <c r="G130" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H130" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I130" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -9820,16 +10286,16 @@
       <c r="B131" s="10">
         <v>3.2169715366713327</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.447739408837961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D131" s="10">
         <v>24.888686405866359</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>-0.5590530029716021</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F131" s="10" t="e">
         <f ca="1"/>
@@ -9837,15 +10303,15 @@
       </c>
       <c r="G131" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H131" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I131" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -9856,16 +10322,16 @@
       <c r="B132" s="10">
         <v>3.1865946019681073</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.34121600537695</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D132" s="10">
         <v>24.812760037032326</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>-0.52845596834462327</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F132" s="10" t="e">
         <f ca="1"/>
@@ -9873,15 +10339,15 @@
       </c>
       <c r="G132" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H132" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I132" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -9892,16 +10358,16 @@
       <c r="B133" s="10">
         <v>3.2825829398773991</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.677820226525618</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D133" s="10">
         <v>24.921589368931141</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>-0.75623085759447761</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F133" s="10" t="e">
         <f ca="1"/>
@@ -9909,15 +10375,15 @@
       </c>
       <c r="G133" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H133" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I133" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -9928,16 +10394,16 @@
       <c r="B134" s="10">
         <v>3.203148631697271</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="10" t="e">
         <f t="shared" si="15"/>
-        <v>25.399266351963043</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D134" s="10">
         <v>24.978174753060646</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>-0.42109159890239667</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F134" s="10" t="e">
         <f ca="1"/>
@@ -9945,15 +10411,15 @@
       </c>
       <c r="G134" s="29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H134" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I134" s="27" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
